--- a/downloads/ControleODONTO Fluxo de Caixa (1).xlsx
+++ b/downloads/ControleODONTO Fluxo de Caixa (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="4182">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4376" uniqueCount="4376">
   <x:si>
     <x:t>Data</x:t>
   </x:si>
@@ -11113,6 +11113,9 @@
     <x:t>95,00</x:t>
   </x:si>
   <x:si>
+    <x:t>93,35</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,65</x:t>
   </x:si>
   <x:si>
@@ -11227,6 +11230,9 @@
     <x:t>013988 1/2</x:t>
   </x:si>
   <x:si>
+    <x:t>394,24</x:t>
+  </x:si>
+  <x:si>
     <x:t>5,76</x:t>
   </x:si>
   <x:si>
@@ -11236,6 +11242,9 @@
     <x:t>013988 1/5</x:t>
   </x:si>
   <x:si>
+    <x:t>215,38</x:t>
+  </x:si>
+  <x:si>
     <x:t>4,62</x:t>
   </x:si>
   <x:si>
@@ -11305,6 +11314,9 @@
     <x:t>013991 1/2</x:t>
   </x:si>
   <x:si>
+    <x:t>146,85</x:t>
+  </x:si>
+  <x:si>
     <x:t>3,15</x:t>
   </x:si>
   <x:si>
@@ -11359,6 +11371,9 @@
     <x:t>2.280,00</x:t>
   </x:si>
   <x:si>
+    <x:t>446,42</x:t>
+  </x:si>
+  <x:si>
     <x:t>9,58</x:t>
   </x:si>
   <x:si>
@@ -11689,6 +11704,9 @@
     <x:t>012475 4/12</x:t>
   </x:si>
   <x:si>
+    <x:t>157,70</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,30</x:t>
   </x:si>
   <x:si>
@@ -11746,12 +11764,18 @@
     <x:t>22/12/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>264,76</x:t>
+  </x:si>
+  <x:si>
     <x:t>5,24</x:t>
   </x:si>
   <x:si>
     <x:t>153728</x:t>
   </x:si>
   <x:si>
+    <x:t>29,49</x:t>
+  </x:si>
+  <x:si>
     <x:t>0,51</x:t>
   </x:si>
   <x:si>
@@ -11767,6 +11791,9 @@
     <x:t>595,00</x:t>
   </x:si>
   <x:si>
+    <x:t>98,31</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,69</x:t>
   </x:si>
   <x:si>
@@ -12499,6 +12526,60 @@
     <x:t>273274</x:t>
   </x:si>
   <x:si>
+    <x:t>013963 1/32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raniere Bomfim Souza Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>794.008.335-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014019 1/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.799,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20533735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessica Alves</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Italo Gabriel Souza Santana Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>097.595.075-44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014020 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sophia Menezes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>073.867.235-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>013509 2/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Marschall Induatria Comercio Importação </x:t>
+  </x:si>
+  <x:si>
     <x:t>3341</x:t>
   </x:si>
   <x:si>
@@ -12511,64 +12592,565 @@
     <x:t>013394 2/12</x:t>
   </x:si>
   <x:si>
-    <x:t>Transferência Bancária</x:t>
-  </x:si>
-  <x:si>
-    <x:t>013963 1/32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Raniere Bomfim Souza Santos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>794.008.335-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>014019 1/12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.799,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20533735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jessica Alves</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Italo Gabriel Souza Santana Santos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>097.595.075-44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>014020 1/1</x:t>
+    <x:t>5104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>José Valdelio Gama Machado</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112.365.905-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014021 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Helio Bento de Santana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252.967.445-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010905 6/31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>013838 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>272,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CORTESIA, Paciente ganhou como cortesia por ter fechado o tratamento sem desconto.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keylla Raquel Lima Bomfim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>018.254.595-41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>011385 1/10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32778730</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012711 3/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gilmar Oliveira da Silva Junior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>077.463.845-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012527 4/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lívia Oliveira</x:t>
+  </x:si>
+  <x:si>
+    <x:t>037.028.535-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012385 4/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012887 3/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012880 3/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27895</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heron Mendes Guimarães Junior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366.963.155-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014022 1/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marcela Souza Guimarães</x:t>
+  </x:si>
+  <x:si>
+    <x:t>052.061.325-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012230 3/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANUTENÇÕES DADAS POR DR. LINCOLN CUSTOS SOMENTE NA REMOÇÃO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thaylla Ribeiro Werneck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185.130.247-67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014023 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014024 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oldemar Vernek Almeida Silva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>029.559.685-60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>009885 10/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ronaldo Oliveira Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146.939.468-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014025 1/10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.542,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12810444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erika Torres Amaral</x:t>
+  </x:si>
+  <x:si>
+    <x:t>052.806.075-92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010456 8/11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.390,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Britocar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24884</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moises Viana do Nascimento</x:t>
+  </x:si>
+  <x:si>
+    <x:t>047.696.745-70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>013513 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.368,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/09/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cortesia concedida por Dr.Lincoln dia 16/9/25 no caixa, pois o paciente já vai remover é amigo dele.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>019.649.155-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014026 1/10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edna Evangelista dos Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>873.417.865-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>013453 2/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alberto da Paixão Nascimento</x:t>
+  </x:si>
+  <x:si>
+    <x:t>034.416.525-68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014027 1/10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.700,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36689664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thamires Catarina Nascimento dos Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>042.188.675-77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012839 3/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michelle Cristina Santos de Oliveira</x:t>
+  </x:si>
+  <x:si>
+    <x:t>083.671.425-35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014028 1/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeunevaldo Alves do Nascimento</x:t>
+  </x:si>
+  <x:si>
+    <x:t>553.325.015-87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>008813 12/21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>874,50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20710</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandra Pereira do Nascimento</x:t>
+  </x:si>
+  <x:si>
+    <x:t>931.158.495-91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012738 4/14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lizete Moreira Leal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>000.773.385-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>008414 13/33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>898,19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nilza Ferreira dos Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133.767.725-68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014031 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eribaldo Cardoso Neto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012.205.415-67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014030 1/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37839830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014029 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.050,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CORTESIA ENXERTO POR DR. LINCOLN.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reinaldo Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>750.299.875-68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>013279 2/2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilma Santos Lima</x:t>
+  </x:si>
+  <x:si>
+    <x:t>647.527.395-34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>011864 5/10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iara Araujo de Oliveira</x:t>
+  </x:si>
+  <x:si>
+    <x:t>023.125.385-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012832 3/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marcos Alves dos Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>015.493.435-64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014032 1/3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42500294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Geovane Pereira dos Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>055.788.905-71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>013572 2/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Álvaro Kruschewsky Miguel Neto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>002.496.305-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>009247 11/13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460,98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010241 8/10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laiana de Souza Modesto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>021.738.725-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012901 3/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43606628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25921</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luka Vieira Lima</x:t>
+  </x:si>
+  <x:si>
+    <x:t>060.881.795-38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014033 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thais Vieira da Costa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>951.935.705-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24613</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ivanice Pastora dos Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>967.148.405-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012455 4/12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Icaro Rhuam Souza Santana Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014035 1/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESTORNO DE PAGAMENTO Mãe do pacieente tranferiu o valor para o irmão dele Italo Gabriel Souza Santana Santos, pois o mesmo tem convênio e faz limpeza por lá, porém o pai não sabia e pagou a limpeza aqui.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vandete Aragão Barbosa Oliveira</x:t>
+  </x:si>
+  <x:si>
+    <x:t>668.523.235-87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010881 1/4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>685,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44403884</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03/05/2025</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>794.756,58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>703.841,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.389,53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.433,44</x:t>
+    <x:t>840.071,11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>737.332,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.452,28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220,50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.465,69</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -12678,8 +13260,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AC885" totalsRowShown="0">
-  <x:autoFilter ref="A1:AC885"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AC927" totalsRowShown="0">
+  <x:autoFilter ref="A1:AC927"/>
   <x:tableColumns count="29">
     <x:tableColumn id="1" name="Data"/>
     <x:tableColumn id="2" name="Transação"/>
@@ -13003,7 +13585,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AC885"/>
+  <x:dimension ref="A1:AC927"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -67568,7 +68150,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K765" s="3" t="s">
-        <x:v>413</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="L765" s="0" t="s">
         <x:v>1003</x:v>
@@ -67791,10 +68373,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K768" s="3" t="s">
-        <x:v>3695</x:v>
+        <x:v>3696</x:v>
       </x:c>
       <x:c r="L768" s="0" t="s">
-        <x:v>3696</x:v>
+        <x:v>3697</x:v>
       </x:c>
       <x:c r="M768" s="0" t="s">
         <x:v>37</x:v>
@@ -67808,7 +68390,7 @@
       </x:c>
       <x:c r="Q768" s="0" t="s"/>
       <x:c r="R768" s="0" t="s">
-        <x:v>3697</x:v>
+        <x:v>3698</x:v>
       </x:c>
       <x:c r="S768" s="0" t="s"/>
       <x:c r="T768" s="0" t="s">
@@ -67821,7 +68403,7 @@
         <x:v>938</x:v>
       </x:c>
       <x:c r="W768" s="0" t="s">
-        <x:v>3698</x:v>
+        <x:v>3699</x:v>
       </x:c>
       <x:c r="X768" s="0" t="s"/>
       <x:c r="Y768" s="0" t="s"/>
@@ -67838,34 +68420,34 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C769" s="0" t="s">
-        <x:v>3699</x:v>
+        <x:v>3700</x:v>
       </x:c>
       <x:c r="D769" s="0" t="s">
-        <x:v>3700</x:v>
+        <x:v>3701</x:v>
       </x:c>
       <x:c r="E769" s="0" t="s">
-        <x:v>3701</x:v>
+        <x:v>3702</x:v>
       </x:c>
       <x:c r="F769" s="0" t="s">
-        <x:v>3702</x:v>
+        <x:v>3703</x:v>
       </x:c>
       <x:c r="G769" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="H769" s="1" t="s">
-        <x:v>3703</x:v>
+        <x:v>3704</x:v>
       </x:c>
       <x:c r="I769" s="2" t="s">
-        <x:v>3703</x:v>
+        <x:v>3704</x:v>
       </x:c>
       <x:c r="J769" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K769" s="3" t="s">
-        <x:v>3704</x:v>
+        <x:v>3705</x:v>
       </x:c>
       <x:c r="L769" s="0" t="s">
-        <x:v>3705</x:v>
+        <x:v>3706</x:v>
       </x:c>
       <x:c r="M769" s="0" t="s">
         <x:v>37</x:v>
@@ -67879,7 +68461,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="R769" s="0" t="s">
-        <x:v>3706</x:v>
+        <x:v>3707</x:v>
       </x:c>
       <x:c r="S769" s="0" t="s">
         <x:v>3681</x:v>
@@ -67913,16 +68495,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C770" s="0" t="s">
-        <x:v>3707</x:v>
+        <x:v>3708</x:v>
       </x:c>
       <x:c r="D770" s="0" t="s">
-        <x:v>3708</x:v>
+        <x:v>3709</x:v>
       </x:c>
       <x:c r="E770" s="0" t="s">
-        <x:v>3709</x:v>
+        <x:v>3710</x:v>
       </x:c>
       <x:c r="F770" s="0" t="s">
-        <x:v>3710</x:v>
+        <x:v>3711</x:v>
       </x:c>
       <x:c r="G770" s="0" t="s">
         <x:v>81</x:v>
@@ -67989,7 +68571,7 @@
         <x:v>1250</x:v>
       </x:c>
       <x:c r="F771" s="0" t="s">
-        <x:v>3711</x:v>
+        <x:v>3712</x:v>
       </x:c>
       <x:c r="G771" s="0" t="s">
         <x:v>35</x:v>
@@ -68051,16 +68633,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C772" s="0" t="s">
-        <x:v>3712</x:v>
+        <x:v>3713</x:v>
       </x:c>
       <x:c r="D772" s="0" t="s">
-        <x:v>3713</x:v>
+        <x:v>3714</x:v>
       </x:c>
       <x:c r="E772" s="0" t="s">
-        <x:v>3714</x:v>
+        <x:v>3715</x:v>
       </x:c>
       <x:c r="F772" s="0" t="s">
-        <x:v>3715</x:v>
+        <x:v>3716</x:v>
       </x:c>
       <x:c r="G772" s="0" t="s">
         <x:v>35</x:v>
@@ -68120,16 +68702,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C773" s="0" t="s">
-        <x:v>3716</x:v>
+        <x:v>3717</x:v>
       </x:c>
       <x:c r="D773" s="0" t="s">
-        <x:v>3717</x:v>
+        <x:v>3718</x:v>
       </x:c>
       <x:c r="E773" s="0" t="s">
-        <x:v>3718</x:v>
+        <x:v>3719</x:v>
       </x:c>
       <x:c r="F773" s="0" t="s">
-        <x:v>3719</x:v>
+        <x:v>3720</x:v>
       </x:c>
       <x:c r="G773" s="0" t="s">
         <x:v>81</x:v>
@@ -68189,31 +68771,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C774" s="0" t="s">
-        <x:v>3720</x:v>
+        <x:v>3721</x:v>
       </x:c>
       <x:c r="D774" s="0" t="s">
-        <x:v>3721</x:v>
+        <x:v>3722</x:v>
       </x:c>
       <x:c r="E774" s="0" t="s">
-        <x:v>3722</x:v>
+        <x:v>3723</x:v>
       </x:c>
       <x:c r="F774" s="0" t="s">
-        <x:v>3723</x:v>
+        <x:v>3724</x:v>
       </x:c>
       <x:c r="G774" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="H774" s="1" t="s">
-        <x:v>3724</x:v>
+        <x:v>3725</x:v>
       </x:c>
       <x:c r="I774" s="2" t="s">
-        <x:v>3725</x:v>
+        <x:v>3726</x:v>
       </x:c>
       <x:c r="J774" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K774" s="3" t="s">
-        <x:v>3725</x:v>
+        <x:v>3726</x:v>
       </x:c>
       <x:c r="L774" s="0" t="s"/>
       <x:c r="M774" s="0" t="s">
@@ -68258,16 +68840,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C775" s="0" t="s">
-        <x:v>3726</x:v>
+        <x:v>3727</x:v>
       </x:c>
       <x:c r="D775" s="0" t="s">
-        <x:v>3727</x:v>
+        <x:v>3728</x:v>
       </x:c>
       <x:c r="E775" s="0" t="s">
-        <x:v>3728</x:v>
+        <x:v>3729</x:v>
       </x:c>
       <x:c r="F775" s="0" t="s">
-        <x:v>3729</x:v>
+        <x:v>3730</x:v>
       </x:c>
       <x:c r="G775" s="0" t="s">
         <x:v>35</x:v>
@@ -68329,16 +68911,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C776" s="0" t="s">
-        <x:v>3730</x:v>
+        <x:v>3731</x:v>
       </x:c>
       <x:c r="D776" s="0" t="s">
-        <x:v>3731</x:v>
+        <x:v>3732</x:v>
       </x:c>
       <x:c r="E776" s="0" t="s">
-        <x:v>3732</x:v>
+        <x:v>3733</x:v>
       </x:c>
       <x:c r="F776" s="0" t="s">
-        <x:v>3733</x:v>
+        <x:v>3734</x:v>
       </x:c>
       <x:c r="G776" s="0" t="s">
         <x:v>106</x:v>
@@ -68353,10 +68935,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K776" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>3735</x:v>
       </x:c>
       <x:c r="L776" s="0" t="s">
-        <x:v>3734</x:v>
+        <x:v>3736</x:v>
       </x:c>
       <x:c r="M776" s="0" t="s">
         <x:v>37</x:v>
@@ -68368,7 +68950,7 @@
       <x:c r="P776" s="0" t="s"/>
       <x:c r="Q776" s="0" t="s"/>
       <x:c r="R776" s="0" t="s">
-        <x:v>3735</x:v>
+        <x:v>3737</x:v>
       </x:c>
       <x:c r="S776" s="0" t="s"/>
       <x:c r="T776" s="0" t="s">
@@ -68400,16 +68982,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C777" s="0" t="s">
-        <x:v>3730</x:v>
+        <x:v>3731</x:v>
       </x:c>
       <x:c r="D777" s="0" t="s">
-        <x:v>3731</x:v>
+        <x:v>3732</x:v>
       </x:c>
       <x:c r="E777" s="0" t="s">
-        <x:v>3732</x:v>
+        <x:v>3733</x:v>
       </x:c>
       <x:c r="F777" s="0" t="s">
-        <x:v>3736</x:v>
+        <x:v>3738</x:v>
       </x:c>
       <x:c r="G777" s="0" t="s">
         <x:v>116</x:v>
@@ -68424,10 +69006,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K777" s="3" t="s">
-        <x:v>2544</x:v>
+        <x:v>3739</x:v>
       </x:c>
       <x:c r="L777" s="0" t="s">
-        <x:v>3737</x:v>
+        <x:v>3740</x:v>
       </x:c>
       <x:c r="M777" s="0" t="s">
         <x:v>37</x:v>
@@ -68441,7 +69023,7 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="R777" s="0" t="s">
-        <x:v>3738</x:v>
+        <x:v>3741</x:v>
       </x:c>
       <x:c r="S777" s="0" t="s">
         <x:v>2566</x:v>
@@ -68484,7 +69066,7 @@
         <x:v>2854</x:v>
       </x:c>
       <x:c r="F778" s="0" t="s">
-        <x:v>3739</x:v>
+        <x:v>3742</x:v>
       </x:c>
       <x:c r="G778" s="0" t="s">
         <x:v>35</x:v>
@@ -68546,16 +69128,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C779" s="0" t="s">
-        <x:v>3740</x:v>
+        <x:v>3743</x:v>
       </x:c>
       <x:c r="D779" s="0" t="s">
-        <x:v>3741</x:v>
+        <x:v>3744</x:v>
       </x:c>
       <x:c r="E779" s="0" t="s">
-        <x:v>3742</x:v>
+        <x:v>3745</x:v>
       </x:c>
       <x:c r="F779" s="0" t="s">
-        <x:v>3743</x:v>
+        <x:v>3746</x:v>
       </x:c>
       <x:c r="G779" s="0" t="s">
         <x:v>35</x:v>
@@ -68617,16 +69199,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C780" s="0" t="s">
-        <x:v>3744</x:v>
+        <x:v>3747</x:v>
       </x:c>
       <x:c r="D780" s="0" t="s">
-        <x:v>3745</x:v>
+        <x:v>3748</x:v>
       </x:c>
       <x:c r="E780" s="0" t="s">
-        <x:v>3746</x:v>
+        <x:v>3749</x:v>
       </x:c>
       <x:c r="F780" s="0" t="s">
-        <x:v>3747</x:v>
+        <x:v>3750</x:v>
       </x:c>
       <x:c r="G780" s="0" t="s">
         <x:v>35</x:v>
@@ -68688,16 +69270,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C781" s="0" t="s">
-        <x:v>3748</x:v>
+        <x:v>3751</x:v>
       </x:c>
       <x:c r="D781" s="0" t="s">
-        <x:v>3749</x:v>
+        <x:v>3752</x:v>
       </x:c>
       <x:c r="E781" s="0" t="s">
-        <x:v>3750</x:v>
+        <x:v>3753</x:v>
       </x:c>
       <x:c r="F781" s="0" t="s">
-        <x:v>3751</x:v>
+        <x:v>3754</x:v>
       </x:c>
       <x:c r="G781" s="0" t="s">
         <x:v>35</x:v>
@@ -68759,16 +69341,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C782" s="0" t="s">
-        <x:v>3752</x:v>
+        <x:v>3755</x:v>
       </x:c>
       <x:c r="D782" s="0" t="s">
-        <x:v>3753</x:v>
+        <x:v>3756</x:v>
       </x:c>
       <x:c r="E782" s="0" t="s">
-        <x:v>3754</x:v>
+        <x:v>3757</x:v>
       </x:c>
       <x:c r="F782" s="0" t="s">
-        <x:v>3755</x:v>
+        <x:v>3758</x:v>
       </x:c>
       <x:c r="G782" s="0" t="s">
         <x:v>81</x:v>
@@ -68828,16 +69410,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C783" s="0" t="s">
-        <x:v>3756</x:v>
+        <x:v>3759</x:v>
       </x:c>
       <x:c r="D783" s="0" t="s">
-        <x:v>3757</x:v>
+        <x:v>3760</x:v>
       </x:c>
       <x:c r="E783" s="0" t="s">
-        <x:v>3758</x:v>
+        <x:v>3761</x:v>
       </x:c>
       <x:c r="F783" s="0" t="s">
-        <x:v>3759</x:v>
+        <x:v>3762</x:v>
       </x:c>
       <x:c r="G783" s="0" t="s">
         <x:v>116</x:v>
@@ -68852,10 +69434,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K783" s="3" t="s">
-        <x:v>167</x:v>
+        <x:v>3763</x:v>
       </x:c>
       <x:c r="L783" s="0" t="s">
-        <x:v>3760</x:v>
+        <x:v>3764</x:v>
       </x:c>
       <x:c r="M783" s="0" t="s">
         <x:v>37</x:v>
@@ -68869,7 +69451,7 @@
         <x:v>339</x:v>
       </x:c>
       <x:c r="R783" s="0" t="s">
-        <x:v>3761</x:v>
+        <x:v>3765</x:v>
       </x:c>
       <x:c r="S783" s="0" t="s">
         <x:v>2566</x:v>
@@ -68903,16 +69485,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C784" s="0" t="s">
-        <x:v>3762</x:v>
+        <x:v>3766</x:v>
       </x:c>
       <x:c r="D784" s="0" t="s">
-        <x:v>3763</x:v>
+        <x:v>3767</x:v>
       </x:c>
       <x:c r="E784" s="0" t="s">
-        <x:v>3764</x:v>
+        <x:v>3768</x:v>
       </x:c>
       <x:c r="F784" s="0" t="s">
-        <x:v>3765</x:v>
+        <x:v>3769</x:v>
       </x:c>
       <x:c r="G784" s="0" t="s">
         <x:v>35</x:v>
@@ -68974,31 +69556,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C785" s="0" t="s">
-        <x:v>3766</x:v>
+        <x:v>3770</x:v>
       </x:c>
       <x:c r="D785" s="0" t="s">
-        <x:v>3767</x:v>
+        <x:v>3771</x:v>
       </x:c>
       <x:c r="E785" s="0" t="s">
-        <x:v>3768</x:v>
+        <x:v>3772</x:v>
       </x:c>
       <x:c r="F785" s="0" t="s">
-        <x:v>3769</x:v>
+        <x:v>3773</x:v>
       </x:c>
       <x:c r="G785" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="H785" s="1" t="s">
-        <x:v>3770</x:v>
+        <x:v>3774</x:v>
       </x:c>
       <x:c r="I785" s="2" t="s">
-        <x:v>3771</x:v>
+        <x:v>3775</x:v>
       </x:c>
       <x:c r="J785" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K785" s="3" t="s">
-        <x:v>3771</x:v>
+        <x:v>3775</x:v>
       </x:c>
       <x:c r="L785" s="0" t="s"/>
       <x:c r="M785" s="0" t="s">
@@ -69009,7 +69591,7 @@
       </x:c>
       <x:c r="O785" s="0" t="s"/>
       <x:c r="P785" s="0" t="s">
-        <x:v>3772</x:v>
+        <x:v>3776</x:v>
       </x:c>
       <x:c r="Q785" s="0" t="s"/>
       <x:c r="R785" s="0" t="s"/>
@@ -69043,34 +69625,34 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C786" s="0" t="s">
-        <x:v>3773</x:v>
+        <x:v>3777</x:v>
       </x:c>
       <x:c r="D786" s="0" t="s">
-        <x:v>3774</x:v>
+        <x:v>3778</x:v>
       </x:c>
       <x:c r="E786" s="0" t="s">
-        <x:v>3775</x:v>
+        <x:v>3779</x:v>
       </x:c>
       <x:c r="F786" s="0" t="s">
-        <x:v>3776</x:v>
+        <x:v>3780</x:v>
       </x:c>
       <x:c r="G786" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="H786" s="1" t="s">
-        <x:v>3777</x:v>
+        <x:v>3781</x:v>
       </x:c>
       <x:c r="I786" s="2" t="s">
-        <x:v>3777</x:v>
+        <x:v>3781</x:v>
       </x:c>
       <x:c r="J786" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K786" s="3" t="s">
-        <x:v>3777</x:v>
+        <x:v>3782</x:v>
       </x:c>
       <x:c r="L786" s="0" t="s">
-        <x:v>3778</x:v>
+        <x:v>3783</x:v>
       </x:c>
       <x:c r="M786" s="0" t="s">
         <x:v>37</x:v>
@@ -69086,7 +69668,7 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="R786" s="0" t="s">
-        <x:v>3779</x:v>
+        <x:v>3784</x:v>
       </x:c>
       <x:c r="S786" s="0" t="s">
         <x:v>2566</x:v>
@@ -69120,16 +69702,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C787" s="0" t="s">
-        <x:v>3780</x:v>
+        <x:v>3785</x:v>
       </x:c>
       <x:c r="D787" s="0" t="s">
-        <x:v>3781</x:v>
+        <x:v>3786</x:v>
       </x:c>
       <x:c r="E787" s="0" t="s">
-        <x:v>3782</x:v>
+        <x:v>3787</x:v>
       </x:c>
       <x:c r="F787" s="0" t="s">
-        <x:v>3783</x:v>
+        <x:v>3788</x:v>
       </x:c>
       <x:c r="G787" s="0" t="s">
         <x:v>35</x:v>
@@ -69176,7 +69758,7 @@
       </x:c>
       <x:c r="X787" s="0" t="s"/>
       <x:c r="Y787" s="0" t="s">
-        <x:v>3784</x:v>
+        <x:v>3789</x:v>
       </x:c>
       <x:c r="Z787" s="0" t="s"/>
       <x:c r="AA787" s="0" t="s"/>
@@ -69191,31 +69773,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C788" s="0" t="s">
-        <x:v>3785</x:v>
+        <x:v>3790</x:v>
       </x:c>
       <x:c r="D788" s="0" t="s">
-        <x:v>3786</x:v>
+        <x:v>3791</x:v>
       </x:c>
       <x:c r="E788" s="0" t="s">
-        <x:v>3787</x:v>
+        <x:v>3792</x:v>
       </x:c>
       <x:c r="F788" s="0" t="s">
-        <x:v>3788</x:v>
+        <x:v>3793</x:v>
       </x:c>
       <x:c r="G788" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H788" s="1" t="s">
-        <x:v>3789</x:v>
+        <x:v>3794</x:v>
       </x:c>
       <x:c r="I788" s="2" t="s">
-        <x:v>3789</x:v>
+        <x:v>3794</x:v>
       </x:c>
       <x:c r="J788" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K788" s="3" t="s">
-        <x:v>3789</x:v>
+        <x:v>3794</x:v>
       </x:c>
       <x:c r="L788" s="0" t="s">
         <x:v>37</x:v>
@@ -69247,7 +69829,7 @@
       </x:c>
       <x:c r="X788" s="0" t="s"/>
       <x:c r="Y788" s="0" t="s">
-        <x:v>3790</x:v>
+        <x:v>3795</x:v>
       </x:c>
       <x:c r="Z788" s="0" t="s"/>
       <x:c r="AA788" s="0" t="s"/>
@@ -69262,31 +69844,31 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C789" s="0" t="s">
-        <x:v>3785</x:v>
+        <x:v>3790</x:v>
       </x:c>
       <x:c r="D789" s="0" t="s">
-        <x:v>3786</x:v>
+        <x:v>3791</x:v>
       </x:c>
       <x:c r="E789" s="0" t="s">
-        <x:v>3787</x:v>
+        <x:v>3792</x:v>
       </x:c>
       <x:c r="F789" s="0" t="s">
-        <x:v>3791</x:v>
+        <x:v>3796</x:v>
       </x:c>
       <x:c r="G789" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H789" s="1" t="s">
-        <x:v>3792</x:v>
+        <x:v>3797</x:v>
       </x:c>
       <x:c r="I789" s="2" t="s">
-        <x:v>3793</x:v>
+        <x:v>3798</x:v>
       </x:c>
       <x:c r="J789" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K789" s="3" t="s">
-        <x:v>3793</x:v>
+        <x:v>3798</x:v>
       </x:c>
       <x:c r="L789" s="0" t="s">
         <x:v>37</x:v>
@@ -69316,7 +69898,7 @@
       </x:c>
       <x:c r="X789" s="0" t="s"/>
       <x:c r="Y789" s="0" t="s">
-        <x:v>3790</x:v>
+        <x:v>3795</x:v>
       </x:c>
       <x:c r="Z789" s="0" t="s"/>
       <x:c r="AA789" s="0" t="s"/>
@@ -69331,16 +69913,16 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C790" s="0" t="s">
-        <x:v>3794</x:v>
+        <x:v>3799</x:v>
       </x:c>
       <x:c r="D790" s="0" t="s">
-        <x:v>3795</x:v>
+        <x:v>3800</x:v>
       </x:c>
       <x:c r="E790" s="0" t="s">
-        <x:v>3796</x:v>
+        <x:v>3801</x:v>
       </x:c>
       <x:c r="F790" s="0" t="s">
-        <x:v>3797</x:v>
+        <x:v>3802</x:v>
       </x:c>
       <x:c r="G790" s="0" t="s">
         <x:v>116</x:v>
@@ -69374,7 +69956,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="R790" s="0" t="s">
-        <x:v>3798</x:v>
+        <x:v>3803</x:v>
       </x:c>
       <x:c r="S790" s="0" t="s">
         <x:v>3681</x:v>
@@ -69389,7 +69971,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="W790" s="0" t="s">
-        <x:v>3799</x:v>
+        <x:v>3804</x:v>
       </x:c>
       <x:c r="X790" s="0" t="s"/>
       <x:c r="Y790" s="0" t="s"/>
@@ -69408,16 +69990,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C791" s="0" t="s">
-        <x:v>3800</x:v>
+        <x:v>3805</x:v>
       </x:c>
       <x:c r="D791" s="0" t="s">
-        <x:v>3801</x:v>
+        <x:v>3806</x:v>
       </x:c>
       <x:c r="E791" s="0" t="s">
-        <x:v>3802</x:v>
+        <x:v>3807</x:v>
       </x:c>
       <x:c r="F791" s="0" t="s">
-        <x:v>3803</x:v>
+        <x:v>3808</x:v>
       </x:c>
       <x:c r="G791" s="0" t="s">
         <x:v>219</x:v>
@@ -69432,7 +70014,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K791" s="3" t="s">
-        <x:v>543</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="L791" s="0" t="s">
         <x:v>752</x:v>
@@ -69447,7 +70029,7 @@
       <x:c r="P791" s="0" t="s"/>
       <x:c r="Q791" s="0" t="s"/>
       <x:c r="R791" s="0" t="s">
-        <x:v>3804</x:v>
+        <x:v>3809</x:v>
       </x:c>
       <x:c r="S791" s="0" t="s"/>
       <x:c r="T791" s="0" t="s">
@@ -69488,7 +70070,7 @@
         <x:v>2472</x:v>
       </x:c>
       <x:c r="F792" s="0" t="s">
-        <x:v>3805</x:v>
+        <x:v>3810</x:v>
       </x:c>
       <x:c r="G792" s="0" t="s">
         <x:v>35</x:v>
@@ -69520,7 +70102,7 @@
       <x:c r="R792" s="0" t="s"/>
       <x:c r="S792" s="0" t="s"/>
       <x:c r="T792" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U792" s="0" t="s">
         <x:v>158</x:v>
@@ -69533,7 +70115,7 @@
       </x:c>
       <x:c r="X792" s="0" t="s"/>
       <x:c r="Y792" s="0" t="s">
-        <x:v>3807</x:v>
+        <x:v>3812</x:v>
       </x:c>
       <x:c r="Z792" s="0" t="s"/>
       <x:c r="AA792" s="0" t="s"/>
@@ -69550,16 +70132,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C793" s="0" t="s">
-        <x:v>3808</x:v>
+        <x:v>3813</x:v>
       </x:c>
       <x:c r="D793" s="0" t="s">
-        <x:v>3809</x:v>
+        <x:v>3814</x:v>
       </x:c>
       <x:c r="E793" s="0" t="s">
-        <x:v>3810</x:v>
+        <x:v>3815</x:v>
       </x:c>
       <x:c r="F793" s="0" t="s">
-        <x:v>3811</x:v>
+        <x:v>3816</x:v>
       </x:c>
       <x:c r="G793" s="0" t="s">
         <x:v>35</x:v>
@@ -69591,7 +70173,7 @@
       <x:c r="R793" s="0" t="s"/>
       <x:c r="S793" s="0" t="s"/>
       <x:c r="T793" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U793" s="0" t="s">
         <x:v>158</x:v>
@@ -69604,7 +70186,7 @@
       </x:c>
       <x:c r="X793" s="0" t="s"/>
       <x:c r="Y793" s="0" t="s">
-        <x:v>3807</x:v>
+        <x:v>3812</x:v>
       </x:c>
       <x:c r="Z793" s="0" t="s"/>
       <x:c r="AA793" s="0" t="s"/>
@@ -69630,22 +70212,22 @@
         <x:v>894</x:v>
       </x:c>
       <x:c r="F794" s="0" t="s">
-        <x:v>3812</x:v>
+        <x:v>3817</x:v>
       </x:c>
       <x:c r="G794" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H794" s="1" t="s">
-        <x:v>3813</x:v>
+        <x:v>3818</x:v>
       </x:c>
       <x:c r="I794" s="2" t="s">
-        <x:v>3813</x:v>
+        <x:v>3818</x:v>
       </x:c>
       <x:c r="J794" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K794" s="3" t="s">
-        <x:v>3813</x:v>
+        <x:v>3818</x:v>
       </x:c>
       <x:c r="L794" s="0" t="s"/>
       <x:c r="M794" s="0" t="s">
@@ -69662,7 +70244,7 @@
       <x:c r="R794" s="0" t="s"/>
       <x:c r="S794" s="0" t="s"/>
       <x:c r="T794" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U794" s="0" t="s">
         <x:v>158</x:v>
@@ -69675,7 +70257,7 @@
       </x:c>
       <x:c r="X794" s="0" t="s"/>
       <x:c r="Y794" s="0" t="s">
-        <x:v>3807</x:v>
+        <x:v>3812</x:v>
       </x:c>
       <x:c r="Z794" s="0" t="s"/>
       <x:c r="AA794" s="0" t="s"/>
@@ -69692,16 +70274,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C795" s="0" t="s">
-        <x:v>3814</x:v>
+        <x:v>3819</x:v>
       </x:c>
       <x:c r="D795" s="0" t="s">
-        <x:v>3815</x:v>
+        <x:v>3820</x:v>
       </x:c>
       <x:c r="E795" s="0" t="s">
-        <x:v>3816</x:v>
+        <x:v>3821</x:v>
       </x:c>
       <x:c r="F795" s="0" t="s">
-        <x:v>3817</x:v>
+        <x:v>3822</x:v>
       </x:c>
       <x:c r="G795" s="0" t="s">
         <x:v>81</x:v>
@@ -69759,16 +70341,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C796" s="0" t="s">
-        <x:v>3818</x:v>
+        <x:v>3823</x:v>
       </x:c>
       <x:c r="D796" s="0" t="s">
-        <x:v>3819</x:v>
+        <x:v>3824</x:v>
       </x:c>
       <x:c r="E796" s="0" t="s">
-        <x:v>3820</x:v>
+        <x:v>3825</x:v>
       </x:c>
       <x:c r="F796" s="0" t="s">
-        <x:v>3821</x:v>
+        <x:v>3826</x:v>
       </x:c>
       <x:c r="G796" s="0" t="s">
         <x:v>35</x:v>
@@ -69832,16 +70414,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C797" s="0" t="s">
-        <x:v>3822</x:v>
+        <x:v>3827</x:v>
       </x:c>
       <x:c r="D797" s="0" t="s">
-        <x:v>3823</x:v>
+        <x:v>3828</x:v>
       </x:c>
       <x:c r="E797" s="0" t="s">
-        <x:v>3824</x:v>
+        <x:v>3829</x:v>
       </x:c>
       <x:c r="F797" s="0" t="s">
-        <x:v>3825</x:v>
+        <x:v>3830</x:v>
       </x:c>
       <x:c r="G797" s="0" t="s">
         <x:v>35</x:v>
@@ -69889,10 +70471,10 @@
         <x:v>2873</x:v>
       </x:c>
       <x:c r="Z797" s="0" t="s">
-        <x:v>3819</x:v>
+        <x:v>3824</x:v>
       </x:c>
       <x:c r="AA797" s="0" t="s">
-        <x:v>3820</x:v>
+        <x:v>3825</x:v>
       </x:c>
       <x:c r="AB797" s="0" t="s">
         <x:v>52</x:v>
@@ -69907,16 +70489,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C798" s="0" t="s">
-        <x:v>3826</x:v>
+        <x:v>3831</x:v>
       </x:c>
       <x:c r="D798" s="0" t="s">
-        <x:v>3827</x:v>
+        <x:v>3832</x:v>
       </x:c>
       <x:c r="E798" s="0" t="s">
-        <x:v>3828</x:v>
+        <x:v>3833</x:v>
       </x:c>
       <x:c r="F798" s="0" t="s">
-        <x:v>3829</x:v>
+        <x:v>3834</x:v>
       </x:c>
       <x:c r="G798" s="0" t="s">
         <x:v>35</x:v>
@@ -69964,10 +70546,10 @@
         <x:v>2873</x:v>
       </x:c>
       <x:c r="Z798" s="0" t="s">
-        <x:v>3830</x:v>
+        <x:v>3835</x:v>
       </x:c>
       <x:c r="AA798" s="0" t="s">
-        <x:v>3831</x:v>
+        <x:v>3836</x:v>
       </x:c>
       <x:c r="AB798" s="0" t="s">
         <x:v>52</x:v>
@@ -69991,7 +70573,7 @@
         <x:v>2220</x:v>
       </x:c>
       <x:c r="F799" s="0" t="s">
-        <x:v>3832</x:v>
+        <x:v>3837</x:v>
       </x:c>
       <x:c r="G799" s="0" t="s">
         <x:v>35</x:v>
@@ -70036,7 +70618,7 @@
       </x:c>
       <x:c r="X799" s="0" t="s"/>
       <x:c r="Y799" s="0" t="s">
-        <x:v>3833</x:v>
+        <x:v>3838</x:v>
       </x:c>
       <x:c r="Z799" s="0" t="s"/>
       <x:c r="AA799" s="0" t="s"/>
@@ -70053,16 +70635,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C800" s="0" t="s">
-        <x:v>3834</x:v>
+        <x:v>3839</x:v>
       </x:c>
       <x:c r="D800" s="0" t="s">
-        <x:v>3835</x:v>
+        <x:v>3840</x:v>
       </x:c>
       <x:c r="E800" s="0" t="s">
-        <x:v>3836</x:v>
+        <x:v>3841</x:v>
       </x:c>
       <x:c r="F800" s="0" t="s">
-        <x:v>3837</x:v>
+        <x:v>3842</x:v>
       </x:c>
       <x:c r="G800" s="0" t="s">
         <x:v>116</x:v>
@@ -70077,7 +70659,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K800" s="3" t="s">
-        <x:v>413</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="L800" s="0" t="s">
         <x:v>1003</x:v>
@@ -70094,7 +70676,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="R800" s="0" t="s">
-        <x:v>3838</x:v>
+        <x:v>3843</x:v>
       </x:c>
       <x:c r="S800" s="0" t="s">
         <x:v>3681</x:v>
@@ -70128,16 +70710,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C801" s="0" t="s">
-        <x:v>3839</x:v>
+        <x:v>3844</x:v>
       </x:c>
       <x:c r="D801" s="0" t="s">
-        <x:v>3840</x:v>
+        <x:v>3845</x:v>
       </x:c>
       <x:c r="E801" s="0" t="s">
-        <x:v>3841</x:v>
+        <x:v>3846</x:v>
       </x:c>
       <x:c r="F801" s="0" t="s">
-        <x:v>3842</x:v>
+        <x:v>3847</x:v>
       </x:c>
       <x:c r="G801" s="0" t="s">
         <x:v>81</x:v>
@@ -70195,16 +70777,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C802" s="0" t="s">
-        <x:v>3843</x:v>
+        <x:v>3848</x:v>
       </x:c>
       <x:c r="D802" s="0" t="s">
-        <x:v>3844</x:v>
+        <x:v>3849</x:v>
       </x:c>
       <x:c r="E802" s="0" t="s">
-        <x:v>3845</x:v>
+        <x:v>3850</x:v>
       </x:c>
       <x:c r="F802" s="0" t="s">
-        <x:v>3846</x:v>
+        <x:v>3851</x:v>
       </x:c>
       <x:c r="G802" s="0" t="s">
         <x:v>106</x:v>
@@ -70219,7 +70801,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K802" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>3534</x:v>
       </x:c>
       <x:c r="L802" s="0" t="s">
         <x:v>3535</x:v>
@@ -70236,7 +70818,7 @@
       </x:c>
       <x:c r="Q802" s="0" t="s"/>
       <x:c r="R802" s="0" t="s">
-        <x:v>3847</x:v>
+        <x:v>3852</x:v>
       </x:c>
       <x:c r="S802" s="0" t="s"/>
       <x:c r="T802" s="0" t="s">
@@ -70249,7 +70831,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="W802" s="0" t="s">
-        <x:v>3848</x:v>
+        <x:v>3853</x:v>
       </x:c>
       <x:c r="X802" s="0" t="s"/>
       <x:c r="Y802" s="0" t="s"/>
@@ -70268,16 +70850,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C803" s="0" t="s">
-        <x:v>3849</x:v>
+        <x:v>3854</x:v>
       </x:c>
       <x:c r="D803" s="0" t="s">
-        <x:v>3850</x:v>
+        <x:v>3855</x:v>
       </x:c>
       <x:c r="E803" s="0" t="s">
-        <x:v>3851</x:v>
+        <x:v>3856</x:v>
       </x:c>
       <x:c r="F803" s="0" t="s">
-        <x:v>3852</x:v>
+        <x:v>3857</x:v>
       </x:c>
       <x:c r="G803" s="0" t="s">
         <x:v>35</x:v>
@@ -70307,7 +70889,7 @@
       <x:c r="R803" s="0" t="s"/>
       <x:c r="S803" s="0" t="s"/>
       <x:c r="T803" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U803" s="0" t="s">
         <x:v>158</x:v>
@@ -70320,7 +70902,7 @@
       </x:c>
       <x:c r="X803" s="0" t="s"/>
       <x:c r="Y803" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z803" s="0" t="s"/>
       <x:c r="AA803" s="0" t="s"/>
@@ -70346,7 +70928,7 @@
         <x:v>3576</x:v>
       </x:c>
       <x:c r="F804" s="0" t="s">
-        <x:v>3854</x:v>
+        <x:v>3859</x:v>
       </x:c>
       <x:c r="G804" s="0" t="s">
         <x:v>35</x:v>
@@ -70378,7 +70960,7 @@
       <x:c r="R804" s="0" t="s"/>
       <x:c r="S804" s="0" t="s"/>
       <x:c r="T804" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U804" s="0" t="s">
         <x:v>50</x:v>
@@ -70391,7 +70973,7 @@
       </x:c>
       <x:c r="X804" s="0" t="s"/>
       <x:c r="Y804" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z804" s="0" t="s"/>
       <x:c r="AA804" s="0" t="s"/>
@@ -70408,16 +70990,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C805" s="0" t="s">
-        <x:v>3855</x:v>
+        <x:v>3860</x:v>
       </x:c>
       <x:c r="D805" s="0" t="s">
-        <x:v>3856</x:v>
+        <x:v>3861</x:v>
       </x:c>
       <x:c r="E805" s="0" t="s">
-        <x:v>3857</x:v>
+        <x:v>3862</x:v>
       </x:c>
       <x:c r="F805" s="0" t="s">
-        <x:v>3858</x:v>
+        <x:v>3863</x:v>
       </x:c>
       <x:c r="G805" s="0" t="s">
         <x:v>219</x:v>
@@ -70432,7 +71014,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K805" s="3" t="s">
-        <x:v>220</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="L805" s="0" t="s">
         <x:v>853</x:v>
@@ -70447,7 +71029,7 @@
       <x:c r="P805" s="0" t="s"/>
       <x:c r="Q805" s="0" t="s"/>
       <x:c r="R805" s="0" t="s">
-        <x:v>3859</x:v>
+        <x:v>3864</x:v>
       </x:c>
       <x:c r="S805" s="0" t="s"/>
       <x:c r="T805" s="0" t="s">
@@ -70479,16 +71061,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C806" s="0" t="s">
-        <x:v>3860</x:v>
+        <x:v>3865</x:v>
       </x:c>
       <x:c r="D806" s="0" t="s">
-        <x:v>3861</x:v>
+        <x:v>3866</x:v>
       </x:c>
       <x:c r="E806" s="0" t="s">
-        <x:v>3862</x:v>
+        <x:v>3867</x:v>
       </x:c>
       <x:c r="F806" s="0" t="s">
-        <x:v>3863</x:v>
+        <x:v>3868</x:v>
       </x:c>
       <x:c r="G806" s="0" t="s">
         <x:v>35</x:v>
@@ -70533,7 +71115,7 @@
       </x:c>
       <x:c r="X806" s="0" t="s"/>
       <x:c r="Y806" s="0" t="s">
-        <x:v>3864</x:v>
+        <x:v>3869</x:v>
       </x:c>
       <x:c r="Z806" s="0" t="s"/>
       <x:c r="AA806" s="0" t="s"/>
@@ -70550,16 +71132,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C807" s="0" t="s">
-        <x:v>3865</x:v>
+        <x:v>3870</x:v>
       </x:c>
       <x:c r="D807" s="0" t="s">
-        <x:v>3866</x:v>
+        <x:v>3871</x:v>
       </x:c>
       <x:c r="E807" s="0" t="s">
-        <x:v>3867</x:v>
+        <x:v>3872</x:v>
       </x:c>
       <x:c r="F807" s="0" t="s">
-        <x:v>3868</x:v>
+        <x:v>3873</x:v>
       </x:c>
       <x:c r="G807" s="0" t="s">
         <x:v>35</x:v>
@@ -70589,7 +71171,7 @@
       <x:c r="R807" s="0" t="s"/>
       <x:c r="S807" s="0" t="s"/>
       <x:c r="T807" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U807" s="0" t="s">
         <x:v>164</x:v>
@@ -70602,7 +71184,7 @@
       </x:c>
       <x:c r="X807" s="0" t="s"/>
       <x:c r="Y807" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z807" s="0" t="s"/>
       <x:c r="AA807" s="0" t="s"/>
@@ -70619,16 +71201,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C808" s="0" t="s">
-        <x:v>3869</x:v>
+        <x:v>3874</x:v>
       </x:c>
       <x:c r="D808" s="0" t="s">
-        <x:v>3870</x:v>
+        <x:v>3875</x:v>
       </x:c>
       <x:c r="E808" s="0" t="s">
-        <x:v>3871</x:v>
+        <x:v>3876</x:v>
       </x:c>
       <x:c r="F808" s="0" t="s">
-        <x:v>3872</x:v>
+        <x:v>3877</x:v>
       </x:c>
       <x:c r="G808" s="0" t="s">
         <x:v>35</x:v>
@@ -70673,7 +71255,7 @@
       </x:c>
       <x:c r="X808" s="0" t="s"/>
       <x:c r="Y808" s="0" t="s">
-        <x:v>3873</x:v>
+        <x:v>3878</x:v>
       </x:c>
       <x:c r="Z808" s="0" t="s"/>
       <x:c r="AA808" s="0" t="s"/>
@@ -70690,16 +71272,16 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C809" s="0" t="s">
-        <x:v>3874</x:v>
+        <x:v>3879</x:v>
       </x:c>
       <x:c r="D809" s="0" t="s">
-        <x:v>3875</x:v>
+        <x:v>3880</x:v>
       </x:c>
       <x:c r="E809" s="0" t="s">
-        <x:v>3876</x:v>
+        <x:v>3881</x:v>
       </x:c>
       <x:c r="F809" s="0" t="s">
-        <x:v>3877</x:v>
+        <x:v>3882</x:v>
       </x:c>
       <x:c r="G809" s="0" t="s">
         <x:v>81</x:v>
@@ -70757,16 +71339,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C810" s="0" t="s">
-        <x:v>3874</x:v>
+        <x:v>3879</x:v>
       </x:c>
       <x:c r="D810" s="0" t="s">
-        <x:v>3875</x:v>
+        <x:v>3880</x:v>
       </x:c>
       <x:c r="E810" s="0" t="s">
-        <x:v>3876</x:v>
+        <x:v>3881</x:v>
       </x:c>
       <x:c r="F810" s="0" t="s">
-        <x:v>3877</x:v>
+        <x:v>3882</x:v>
       </x:c>
       <x:c r="G810" s="0" t="s">
         <x:v>35</x:v>
@@ -70798,7 +71380,7 @@
       <x:c r="R810" s="0" t="s"/>
       <x:c r="S810" s="0" t="s"/>
       <x:c r="T810" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U810" s="0" t="s">
         <x:v>69</x:v>
@@ -70811,7 +71393,7 @@
       </x:c>
       <x:c r="X810" s="0" t="s"/>
       <x:c r="Y810" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z810" s="0" t="s"/>
       <x:c r="AA810" s="0" t="s"/>
@@ -70828,16 +71410,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C811" s="0" t="s">
-        <x:v>3878</x:v>
+        <x:v>3883</x:v>
       </x:c>
       <x:c r="D811" s="0" t="s">
-        <x:v>3879</x:v>
+        <x:v>3884</x:v>
       </x:c>
       <x:c r="E811" s="0" t="s">
-        <x:v>3880</x:v>
+        <x:v>3885</x:v>
       </x:c>
       <x:c r="F811" s="0" t="s">
-        <x:v>3881</x:v>
+        <x:v>3886</x:v>
       </x:c>
       <x:c r="G811" s="0" t="s">
         <x:v>81</x:v>
@@ -70846,13 +71428,13 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I811" s="2" t="s">
-        <x:v>3882</x:v>
+        <x:v>3887</x:v>
       </x:c>
       <x:c r="J811" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K811" s="3" t="s">
-        <x:v>3882</x:v>
+        <x:v>3887</x:v>
       </x:c>
       <x:c r="L811" s="0" t="s"/>
       <x:c r="M811" s="0" t="s">
@@ -70897,16 +71479,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C812" s="0" t="s">
-        <x:v>3883</x:v>
+        <x:v>3888</x:v>
       </x:c>
       <x:c r="D812" s="0" t="s">
-        <x:v>3884</x:v>
+        <x:v>3889</x:v>
       </x:c>
       <x:c r="E812" s="0" t="s">
-        <x:v>3885</x:v>
+        <x:v>3890</x:v>
       </x:c>
       <x:c r="F812" s="0" t="s">
-        <x:v>3886</x:v>
+        <x:v>3891</x:v>
       </x:c>
       <x:c r="G812" s="0" t="s">
         <x:v>35</x:v>
@@ -70936,7 +71518,7 @@
       <x:c r="R812" s="0" t="s"/>
       <x:c r="S812" s="0" t="s"/>
       <x:c r="T812" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U812" s="0" t="s">
         <x:v>50</x:v>
@@ -70949,7 +71531,7 @@
       </x:c>
       <x:c r="X812" s="0" t="s"/>
       <x:c r="Y812" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z812" s="0" t="s"/>
       <x:c r="AA812" s="0" t="s"/>
@@ -70975,7 +71557,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="F813" s="0" t="s">
-        <x:v>3887</x:v>
+        <x:v>3892</x:v>
       </x:c>
       <x:c r="G813" s="0" t="s">
         <x:v>106</x:v>
@@ -70990,10 +71572,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K813" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>3893</x:v>
       </x:c>
       <x:c r="L813" s="0" t="s">
-        <x:v>3888</x:v>
+        <x:v>3894</x:v>
       </x:c>
       <x:c r="M813" s="0" t="s">
         <x:v>37</x:v>
@@ -71005,7 +71587,7 @@
       <x:c r="P813" s="0" t="s"/>
       <x:c r="Q813" s="0" t="s"/>
       <x:c r="R813" s="0" t="s">
-        <x:v>3889</x:v>
+        <x:v>3895</x:v>
       </x:c>
       <x:c r="S813" s="0" t="s"/>
       <x:c r="T813" s="0" t="s">
@@ -71037,16 +71619,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C814" s="0" t="s">
-        <x:v>3890</x:v>
+        <x:v>3896</x:v>
       </x:c>
       <x:c r="D814" s="0" t="s">
-        <x:v>3891</x:v>
+        <x:v>3897</x:v>
       </x:c>
       <x:c r="E814" s="0" t="s">
-        <x:v>3892</x:v>
+        <x:v>3898</x:v>
       </x:c>
       <x:c r="F814" s="0" t="s">
-        <x:v>3893</x:v>
+        <x:v>3899</x:v>
       </x:c>
       <x:c r="G814" s="0" t="s">
         <x:v>35</x:v>
@@ -71089,11 +71671,11 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="W814" s="0" t="s">
-        <x:v>3894</x:v>
+        <x:v>3900</x:v>
       </x:c>
       <x:c r="X814" s="0" t="s"/>
       <x:c r="Y814" s="0" t="s">
-        <x:v>3895</x:v>
+        <x:v>3901</x:v>
       </x:c>
       <x:c r="Z814" s="0" t="s"/>
       <x:c r="AA814" s="0" t="s"/>
@@ -71108,16 +71690,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C815" s="0" t="s">
-        <x:v>3896</x:v>
+        <x:v>3902</x:v>
       </x:c>
       <x:c r="D815" s="0" t="s">
-        <x:v>3897</x:v>
+        <x:v>3903</x:v>
       </x:c>
       <x:c r="E815" s="0" t="s">
-        <x:v>3898</x:v>
+        <x:v>3904</x:v>
       </x:c>
       <x:c r="F815" s="0" t="s">
-        <x:v>3899</x:v>
+        <x:v>3905</x:v>
       </x:c>
       <x:c r="G815" s="0" t="s">
         <x:v>81</x:v>
@@ -71175,19 +71757,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C816" s="0" t="s">
-        <x:v>3834</x:v>
+        <x:v>3839</x:v>
       </x:c>
       <x:c r="D816" s="0" t="s">
-        <x:v>3835</x:v>
+        <x:v>3840</x:v>
       </x:c>
       <x:c r="E816" s="0" t="s">
-        <x:v>3836</x:v>
+        <x:v>3841</x:v>
       </x:c>
       <x:c r="F816" s="0" t="s">
-        <x:v>3900</x:v>
+        <x:v>3906</x:v>
       </x:c>
       <x:c r="G816" s="0" t="s">
-        <x:v>3901</x:v>
+        <x:v>3907</x:v>
       </x:c>
       <x:c r="H816" s="1" t="s">
         <x:v>2340</x:v>
@@ -71212,10 +71794,10 @@
       <x:c r="P816" s="0" t="s"/>
       <x:c r="Q816" s="0" t="s"/>
       <x:c r="R816" s="0" t="s">
-        <x:v>3902</x:v>
+        <x:v>3908</x:v>
       </x:c>
       <x:c r="S816" s="0" t="s">
-        <x:v>3903</x:v>
+        <x:v>3909</x:v>
       </x:c>
       <x:c r="T816" s="0" t="s">
         <x:v>85</x:v>
@@ -71227,7 +71809,7 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="W816" s="0" t="s">
-        <x:v>3903</x:v>
+        <x:v>3909</x:v>
       </x:c>
       <x:c r="X816" s="0" t="s"/>
       <x:c r="Y816" s="0" t="s"/>
@@ -71246,19 +71828,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C817" s="0" t="s">
-        <x:v>3834</x:v>
+        <x:v>3839</x:v>
       </x:c>
       <x:c r="D817" s="0" t="s">
-        <x:v>3835</x:v>
+        <x:v>3840</x:v>
       </x:c>
       <x:c r="E817" s="0" t="s">
-        <x:v>3836</x:v>
+        <x:v>3841</x:v>
       </x:c>
       <x:c r="F817" s="0" t="s">
-        <x:v>3904</x:v>
+        <x:v>3910</x:v>
       </x:c>
       <x:c r="G817" s="0" t="s">
-        <x:v>3901</x:v>
+        <x:v>3907</x:v>
       </x:c>
       <x:c r="H817" s="1" t="s">
         <x:v>2340</x:v>
@@ -71283,10 +71865,10 @@
       <x:c r="P817" s="0" t="s"/>
       <x:c r="Q817" s="0" t="s"/>
       <x:c r="R817" s="0" t="s">
-        <x:v>3905</x:v>
+        <x:v>3911</x:v>
       </x:c>
       <x:c r="S817" s="0" t="s">
-        <x:v>3906</x:v>
+        <x:v>3912</x:v>
       </x:c>
       <x:c r="T817" s="0" t="s">
         <x:v>85</x:v>
@@ -71298,7 +71880,7 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="W817" s="0" t="s">
-        <x:v>3906</x:v>
+        <x:v>3912</x:v>
       </x:c>
       <x:c r="X817" s="0" t="s"/>
       <x:c r="Y817" s="0" t="s"/>
@@ -71341,10 +71923,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K818" s="3" t="s">
-        <x:v>335</x:v>
+        <x:v>3913</x:v>
       </x:c>
       <x:c r="L818" s="0" t="s">
-        <x:v>3907</x:v>
+        <x:v>3914</x:v>
       </x:c>
       <x:c r="M818" s="0" t="s">
         <x:v>37</x:v>
@@ -71358,7 +71940,7 @@
       </x:c>
       <x:c r="Q818" s="0" t="s"/>
       <x:c r="R818" s="0" t="s">
-        <x:v>3908</x:v>
+        <x:v>3915</x:v>
       </x:c>
       <x:c r="S818" s="0" t="s"/>
       <x:c r="T818" s="0" t="s">
@@ -71414,10 +71996,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K819" s="3" t="s">
-        <x:v>569</x:v>
+        <x:v>3916</x:v>
       </x:c>
       <x:c r="L819" s="0" t="s">
-        <x:v>3909</x:v>
+        <x:v>3917</x:v>
       </x:c>
       <x:c r="M819" s="0" t="s">
         <x:v>37</x:v>
@@ -71431,11 +72013,11 @@
       </x:c>
       <x:c r="Q819" s="0" t="s"/>
       <x:c r="R819" s="0" t="s">
-        <x:v>3910</x:v>
+        <x:v>3918</x:v>
       </x:c>
       <x:c r="S819" s="0" t="s"/>
       <x:c r="T819" s="0" t="s">
-        <x:v>3911</x:v>
+        <x:v>3919</x:v>
       </x:c>
       <x:c r="U819" s="0" t="s">
         <x:v>164</x:v>
@@ -71472,13 +72054,13 @@
         <x:v>2921</x:v>
       </x:c>
       <x:c r="F820" s="0" t="s">
-        <x:v>3912</x:v>
+        <x:v>3920</x:v>
       </x:c>
       <x:c r="G820" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="H820" s="1" t="s">
-        <x:v>3913</x:v>
+        <x:v>3921</x:v>
       </x:c>
       <x:c r="I820" s="2" t="s">
         <x:v>371</x:v>
@@ -71487,10 +72069,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="K820" s="3" t="s">
-        <x:v>371</x:v>
+        <x:v>3922</x:v>
       </x:c>
       <x:c r="L820" s="0" t="s">
-        <x:v>3914</x:v>
+        <x:v>3923</x:v>
       </x:c>
       <x:c r="M820" s="0" t="s">
         <x:v>37</x:v>
@@ -71502,11 +72084,11 @@
       <x:c r="P820" s="0" t="s"/>
       <x:c r="Q820" s="0" t="s"/>
       <x:c r="R820" s="0" t="s">
-        <x:v>3910</x:v>
+        <x:v>3918</x:v>
       </x:c>
       <x:c r="S820" s="0" t="s"/>
       <x:c r="T820" s="0" t="s">
-        <x:v>3911</x:v>
+        <x:v>3919</x:v>
       </x:c>
       <x:c r="U820" s="0" t="s">
         <x:v>164</x:v>
@@ -71543,22 +72125,22 @@
         <x:v>2867</x:v>
       </x:c>
       <x:c r="F821" s="0" t="s">
-        <x:v>3915</x:v>
+        <x:v>3924</x:v>
       </x:c>
       <x:c r="G821" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H821" s="1" t="s">
-        <x:v>3916</x:v>
+        <x:v>3925</x:v>
       </x:c>
       <x:c r="I821" s="2" t="s">
-        <x:v>3916</x:v>
+        <x:v>3925</x:v>
       </x:c>
       <x:c r="J821" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K821" s="3" t="s">
-        <x:v>3916</x:v>
+        <x:v>3925</x:v>
       </x:c>
       <x:c r="L821" s="0" t="s"/>
       <x:c r="M821" s="0" t="s">
@@ -71573,7 +72155,7 @@
       <x:c r="R821" s="0" t="s"/>
       <x:c r="S821" s="0" t="s"/>
       <x:c r="T821" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U821" s="0" t="s">
         <x:v>158</x:v>
@@ -71586,7 +72168,7 @@
       </x:c>
       <x:c r="X821" s="0" t="s"/>
       <x:c r="Y821" s="0" t="s">
-        <x:v>3917</x:v>
+        <x:v>3926</x:v>
       </x:c>
       <x:c r="Z821" s="0" t="s"/>
       <x:c r="AA821" s="0" t="s"/>
@@ -71603,16 +72185,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C822" s="0" t="s">
-        <x:v>3918</x:v>
+        <x:v>3927</x:v>
       </x:c>
       <x:c r="D822" s="0" t="s">
-        <x:v>3919</x:v>
+        <x:v>3928</x:v>
       </x:c>
       <x:c r="E822" s="0" t="s">
-        <x:v>3920</x:v>
+        <x:v>3929</x:v>
       </x:c>
       <x:c r="F822" s="0" t="s">
-        <x:v>3921</x:v>
+        <x:v>3930</x:v>
       </x:c>
       <x:c r="G822" s="0" t="s">
         <x:v>35</x:v>
@@ -71642,7 +72224,7 @@
       <x:c r="R822" s="0" t="s"/>
       <x:c r="S822" s="0" t="s"/>
       <x:c r="T822" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U822" s="0" t="s">
         <x:v>50</x:v>
@@ -71655,7 +72237,7 @@
       </x:c>
       <x:c r="X822" s="0" t="s"/>
       <x:c r="Y822" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z822" s="0" t="s"/>
       <x:c r="AA822" s="0" t="s"/>
@@ -71681,7 +72263,7 @@
         <x:v>2281</x:v>
       </x:c>
       <x:c r="F823" s="0" t="s">
-        <x:v>3922</x:v>
+        <x:v>3931</x:v>
       </x:c>
       <x:c r="G823" s="0" t="s">
         <x:v>35</x:v>
@@ -71743,16 +72325,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C824" s="0" t="s">
-        <x:v>3923</x:v>
+        <x:v>3932</x:v>
       </x:c>
       <x:c r="D824" s="0" t="s">
-        <x:v>3924</x:v>
+        <x:v>3933</x:v>
       </x:c>
       <x:c r="E824" s="0" t="s">
-        <x:v>3925</x:v>
+        <x:v>3934</x:v>
       </x:c>
       <x:c r="F824" s="0" t="s">
-        <x:v>3926</x:v>
+        <x:v>3935</x:v>
       </x:c>
       <x:c r="G824" s="0" t="s">
         <x:v>81</x:v>
@@ -71810,16 +72392,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C825" s="0" t="s">
-        <x:v>3927</x:v>
+        <x:v>3936</x:v>
       </x:c>
       <x:c r="D825" s="0" t="s">
-        <x:v>3928</x:v>
+        <x:v>3937</x:v>
       </x:c>
       <x:c r="E825" s="0" t="s">
-        <x:v>3929</x:v>
+        <x:v>3938</x:v>
       </x:c>
       <x:c r="F825" s="0" t="s">
-        <x:v>3930</x:v>
+        <x:v>3939</x:v>
       </x:c>
       <x:c r="G825" s="0" t="s">
         <x:v>35</x:v>
@@ -71881,16 +72463,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C826" s="0" t="s">
-        <x:v>3931</x:v>
+        <x:v>3940</x:v>
       </x:c>
       <x:c r="D826" s="0" t="s">
-        <x:v>3932</x:v>
+        <x:v>3941</x:v>
       </x:c>
       <x:c r="E826" s="0" t="s">
-        <x:v>3933</x:v>
+        <x:v>3942</x:v>
       </x:c>
       <x:c r="F826" s="0" t="s">
-        <x:v>3934</x:v>
+        <x:v>3943</x:v>
       </x:c>
       <x:c r="G826" s="0" t="s">
         <x:v>81</x:v>
@@ -71950,16 +72532,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C827" s="0" t="s">
-        <x:v>3935</x:v>
+        <x:v>3944</x:v>
       </x:c>
       <x:c r="D827" s="0" t="s">
-        <x:v>3936</x:v>
+        <x:v>3945</x:v>
       </x:c>
       <x:c r="E827" s="0" t="s">
-        <x:v>3937</x:v>
+        <x:v>3946</x:v>
       </x:c>
       <x:c r="F827" s="0" t="s">
-        <x:v>3938</x:v>
+        <x:v>3947</x:v>
       </x:c>
       <x:c r="G827" s="0" t="s">
         <x:v>81</x:v>
@@ -71968,13 +72550,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I827" s="2" t="s">
-        <x:v>3939</x:v>
+        <x:v>3948</x:v>
       </x:c>
       <x:c r="J827" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K827" s="3" t="s">
-        <x:v>3939</x:v>
+        <x:v>3948</x:v>
       </x:c>
       <x:c r="L827" s="0" t="s"/>
       <x:c r="M827" s="0" t="s">
@@ -71985,7 +72567,7 @@
       </x:c>
       <x:c r="O827" s="0" t="s"/>
       <x:c r="P827" s="0" t="s">
-        <x:v>3940</x:v>
+        <x:v>3949</x:v>
       </x:c>
       <x:c r="Q827" s="0" t="s"/>
       <x:c r="R827" s="0" t="s"/>
@@ -72019,16 +72601,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C828" s="0" t="s">
-        <x:v>3941</x:v>
+        <x:v>3950</x:v>
       </x:c>
       <x:c r="D828" s="0" t="s">
-        <x:v>3942</x:v>
+        <x:v>3951</x:v>
       </x:c>
       <x:c r="E828" s="0" t="s">
-        <x:v>3943</x:v>
+        <x:v>3952</x:v>
       </x:c>
       <x:c r="F828" s="0" t="s">
-        <x:v>3944</x:v>
+        <x:v>3953</x:v>
       </x:c>
       <x:c r="G828" s="0" t="s">
         <x:v>35</x:v>
@@ -72101,7 +72683,7 @@
         <x:v>2364</x:v>
       </x:c>
       <x:c r="F829" s="0" t="s">
-        <x:v>3945</x:v>
+        <x:v>3954</x:v>
       </x:c>
       <x:c r="G829" s="0" t="s">
         <x:v>35</x:v>
@@ -72141,7 +72723,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="V829" s="0" t="s">
-        <x:v>3946</x:v>
+        <x:v>3955</x:v>
       </x:c>
       <x:c r="W829" s="0" t="s">
         <x:v>100</x:v>
@@ -72172,7 +72754,7 @@
         <x:v>2979</x:v>
       </x:c>
       <x:c r="F830" s="0" t="s">
-        <x:v>3947</x:v>
+        <x:v>3956</x:v>
       </x:c>
       <x:c r="G830" s="0" t="s">
         <x:v>35</x:v>
@@ -72243,7 +72825,7 @@
         <x:v>1379</x:v>
       </x:c>
       <x:c r="F831" s="0" t="s">
-        <x:v>3948</x:v>
+        <x:v>3957</x:v>
       </x:c>
       <x:c r="G831" s="0" t="s">
         <x:v>35</x:v>
@@ -72290,7 +72872,7 @@
       </x:c>
       <x:c r="X831" s="0" t="s"/>
       <x:c r="Y831" s="0" t="s">
-        <x:v>3949</x:v>
+        <x:v>3958</x:v>
       </x:c>
       <x:c r="Z831" s="0" t="s"/>
       <x:c r="AA831" s="0" t="s"/>
@@ -72307,16 +72889,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C832" s="0" t="s">
-        <x:v>3950</x:v>
+        <x:v>3959</x:v>
       </x:c>
       <x:c r="D832" s="0" t="s">
-        <x:v>3951</x:v>
+        <x:v>3960</x:v>
       </x:c>
       <x:c r="E832" s="0" t="s">
-        <x:v>3952</x:v>
+        <x:v>3961</x:v>
       </x:c>
       <x:c r="F832" s="0" t="s">
-        <x:v>3953</x:v>
+        <x:v>3962</x:v>
       </x:c>
       <x:c r="G832" s="0" t="s">
         <x:v>81</x:v>
@@ -72374,16 +72956,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C833" s="0" t="s">
-        <x:v>3954</x:v>
+        <x:v>3963</x:v>
       </x:c>
       <x:c r="D833" s="0" t="s">
-        <x:v>3955</x:v>
+        <x:v>3964</x:v>
       </x:c>
       <x:c r="E833" s="0" t="s">
-        <x:v>3956</x:v>
+        <x:v>3965</x:v>
       </x:c>
       <x:c r="F833" s="0" t="s">
-        <x:v>3957</x:v>
+        <x:v>3966</x:v>
       </x:c>
       <x:c r="G833" s="0" t="s">
         <x:v>35</x:v>
@@ -72445,16 +73027,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C834" s="0" t="s">
-        <x:v>3958</x:v>
+        <x:v>3967</x:v>
       </x:c>
       <x:c r="D834" s="0" t="s">
-        <x:v>3959</x:v>
+        <x:v>3968</x:v>
       </x:c>
       <x:c r="E834" s="0" t="s">
-        <x:v>3960</x:v>
+        <x:v>3969</x:v>
       </x:c>
       <x:c r="F834" s="0" t="s">
-        <x:v>3961</x:v>
+        <x:v>3970</x:v>
       </x:c>
       <x:c r="G834" s="0" t="s">
         <x:v>35</x:v>
@@ -72501,7 +73083,7 @@
       </x:c>
       <x:c r="X834" s="0" t="s"/>
       <x:c r="Y834" s="0" t="s">
-        <x:v>3962</x:v>
+        <x:v>3971</x:v>
       </x:c>
       <x:c r="Z834" s="0" t="s"/>
       <x:c r="AA834" s="0" t="s"/>
@@ -72518,16 +73100,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C835" s="0" t="s">
-        <x:v>3963</x:v>
+        <x:v>3972</x:v>
       </x:c>
       <x:c r="D835" s="0" t="s">
-        <x:v>3964</x:v>
+        <x:v>3973</x:v>
       </x:c>
       <x:c r="E835" s="0" t="s">
-        <x:v>3965</x:v>
+        <x:v>3974</x:v>
       </x:c>
       <x:c r="F835" s="0" t="s">
-        <x:v>3966</x:v>
+        <x:v>3975</x:v>
       </x:c>
       <x:c r="G835" s="0" t="s">
         <x:v>116</x:v>
@@ -72559,10 +73141,10 @@
         <x:v>603</x:v>
       </x:c>
       <x:c r="R835" s="0" t="s">
-        <x:v>3967</x:v>
+        <x:v>3976</x:v>
       </x:c>
       <x:c r="S835" s="0" t="s">
-        <x:v>3968</x:v>
+        <x:v>3977</x:v>
       </x:c>
       <x:c r="T835" s="0" t="s">
         <x:v>605</x:v>
@@ -72593,16 +73175,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C836" s="0" t="s">
-        <x:v>3969</x:v>
+        <x:v>3978</x:v>
       </x:c>
       <x:c r="D836" s="0" t="s">
-        <x:v>3970</x:v>
+        <x:v>3979</x:v>
       </x:c>
       <x:c r="E836" s="0" t="s">
-        <x:v>3971</x:v>
+        <x:v>3980</x:v>
       </x:c>
       <x:c r="F836" s="0" t="s">
-        <x:v>3972</x:v>
+        <x:v>3981</x:v>
       </x:c>
       <x:c r="G836" s="0" t="s">
         <x:v>81</x:v>
@@ -72662,31 +73244,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C837" s="0" t="s">
-        <x:v>3973</x:v>
+        <x:v>3982</x:v>
       </x:c>
       <x:c r="D837" s="0" t="s">
-        <x:v>3974</x:v>
+        <x:v>3983</x:v>
       </x:c>
       <x:c r="E837" s="0" t="s">
-        <x:v>3975</x:v>
+        <x:v>3984</x:v>
       </x:c>
       <x:c r="F837" s="0" t="s">
-        <x:v>3976</x:v>
+        <x:v>3985</x:v>
       </x:c>
       <x:c r="G837" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H837" s="1" t="s">
-        <x:v>3977</x:v>
+        <x:v>3986</x:v>
       </x:c>
       <x:c r="I837" s="2" t="s">
-        <x:v>3977</x:v>
+        <x:v>3986</x:v>
       </x:c>
       <x:c r="J837" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K837" s="3" t="s">
-        <x:v>3977</x:v>
+        <x:v>3986</x:v>
       </x:c>
       <x:c r="L837" s="0" t="s">
         <x:v>37</x:v>
@@ -72716,7 +73298,7 @@
       </x:c>
       <x:c r="X837" s="0" t="s"/>
       <x:c r="Y837" s="0" t="s">
-        <x:v>3978</x:v>
+        <x:v>3987</x:v>
       </x:c>
       <x:c r="Z837" s="0" t="s"/>
       <x:c r="AA837" s="0" t="s"/>
@@ -72733,16 +73315,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C838" s="0" t="s">
-        <x:v>3979</x:v>
+        <x:v>3988</x:v>
       </x:c>
       <x:c r="D838" s="0" t="s">
-        <x:v>3980</x:v>
+        <x:v>3989</x:v>
       </x:c>
       <x:c r="E838" s="0" t="s">
-        <x:v>3981</x:v>
+        <x:v>3990</x:v>
       </x:c>
       <x:c r="F838" s="0" t="s">
-        <x:v>3982</x:v>
+        <x:v>3991</x:v>
       </x:c>
       <x:c r="G838" s="0" t="s">
         <x:v>35</x:v>
@@ -72787,7 +73369,7 @@
       </x:c>
       <x:c r="X838" s="0" t="s"/>
       <x:c r="Y838" s="0" t="s">
-        <x:v>3983</x:v>
+        <x:v>3992</x:v>
       </x:c>
       <x:c r="Z838" s="0" t="s"/>
       <x:c r="AA838" s="0" t="s"/>
@@ -72804,16 +73386,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C839" s="0" t="s">
-        <x:v>3984</x:v>
+        <x:v>3993</x:v>
       </x:c>
       <x:c r="D839" s="0" t="s">
-        <x:v>3985</x:v>
+        <x:v>3994</x:v>
       </x:c>
       <x:c r="E839" s="0" t="s">
-        <x:v>3986</x:v>
+        <x:v>3995</x:v>
       </x:c>
       <x:c r="F839" s="0" t="s">
-        <x:v>3987</x:v>
+        <x:v>3996</x:v>
       </x:c>
       <x:c r="G839" s="0" t="s">
         <x:v>35</x:v>
@@ -72858,7 +73440,7 @@
       </x:c>
       <x:c r="X839" s="0" t="s"/>
       <x:c r="Y839" s="0" t="s">
-        <x:v>3988</x:v>
+        <x:v>3997</x:v>
       </x:c>
       <x:c r="Z839" s="0" t="s"/>
       <x:c r="AA839" s="0" t="s"/>
@@ -72875,31 +73457,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C840" s="0" t="s">
-        <x:v>3989</x:v>
+        <x:v>3998</x:v>
       </x:c>
       <x:c r="D840" s="0" t="s">
-        <x:v>3990</x:v>
+        <x:v>3999</x:v>
       </x:c>
       <x:c r="E840" s="0" t="s">
-        <x:v>3991</x:v>
+        <x:v>4000</x:v>
       </x:c>
       <x:c r="F840" s="0" t="s">
-        <x:v>3992</x:v>
+        <x:v>4001</x:v>
       </x:c>
       <x:c r="G840" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H840" s="1" t="s">
-        <x:v>3993</x:v>
+        <x:v>4002</x:v>
       </x:c>
       <x:c r="I840" s="2" t="s">
-        <x:v>3993</x:v>
+        <x:v>4002</x:v>
       </x:c>
       <x:c r="J840" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K840" s="3" t="s">
-        <x:v>3993</x:v>
+        <x:v>4002</x:v>
       </x:c>
       <x:c r="L840" s="0" t="s">
         <x:v>37</x:v>
@@ -72929,7 +73511,7 @@
       </x:c>
       <x:c r="X840" s="0" t="s"/>
       <x:c r="Y840" s="0" t="s">
-        <x:v>3994</x:v>
+        <x:v>4003</x:v>
       </x:c>
       <x:c r="Z840" s="0" t="s"/>
       <x:c r="AA840" s="0" t="s"/>
@@ -72946,16 +73528,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C841" s="0" t="s">
-        <x:v>3989</x:v>
+        <x:v>3998</x:v>
       </x:c>
       <x:c r="D841" s="0" t="s">
-        <x:v>3990</x:v>
+        <x:v>3999</x:v>
       </x:c>
       <x:c r="E841" s="0" t="s">
-        <x:v>3991</x:v>
+        <x:v>4000</x:v>
       </x:c>
       <x:c r="F841" s="0" t="s">
-        <x:v>3995</x:v>
+        <x:v>4004</x:v>
       </x:c>
       <x:c r="G841" s="0" t="s">
         <x:v>35</x:v>
@@ -73000,7 +73582,7 @@
       </x:c>
       <x:c r="X841" s="0" t="s"/>
       <x:c r="Y841" s="0" t="s">
-        <x:v>3994</x:v>
+        <x:v>4003</x:v>
       </x:c>
       <x:c r="Z841" s="0" t="s"/>
       <x:c r="AA841" s="0" t="s"/>
@@ -73017,16 +73599,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C842" s="0" t="s">
-        <x:v>3989</x:v>
+        <x:v>3998</x:v>
       </x:c>
       <x:c r="D842" s="0" t="s">
-        <x:v>3990</x:v>
+        <x:v>3999</x:v>
       </x:c>
       <x:c r="E842" s="0" t="s">
-        <x:v>3991</x:v>
+        <x:v>4000</x:v>
       </x:c>
       <x:c r="F842" s="0" t="s">
-        <x:v>3995</x:v>
+        <x:v>4004</x:v>
       </x:c>
       <x:c r="G842" s="0" t="s">
         <x:v>116</x:v>
@@ -73058,10 +73640,10 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="R842" s="0" t="s">
-        <x:v>3996</x:v>
+        <x:v>4005</x:v>
       </x:c>
       <x:c r="S842" s="0" t="s">
-        <x:v>3968</x:v>
+        <x:v>3977</x:v>
       </x:c>
       <x:c r="T842" s="0" t="s">
         <x:v>257</x:v>
@@ -73101,7 +73683,7 @@
         <x:v>3461</x:v>
       </x:c>
       <x:c r="F843" s="0" t="s">
-        <x:v>3997</x:v>
+        <x:v>4006</x:v>
       </x:c>
       <x:c r="G843" s="0" t="s">
         <x:v>219</x:v>
@@ -73131,7 +73713,7 @@
       <x:c r="P843" s="0" t="s"/>
       <x:c r="Q843" s="0" t="s"/>
       <x:c r="R843" s="0" t="s">
-        <x:v>3998</x:v>
+        <x:v>4007</x:v>
       </x:c>
       <x:c r="S843" s="0" t="s"/>
       <x:c r="T843" s="0" t="s">
@@ -73163,16 +73745,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C844" s="0" t="s">
-        <x:v>3999</x:v>
+        <x:v>4008</x:v>
       </x:c>
       <x:c r="D844" s="0" t="s">
-        <x:v>4000</x:v>
+        <x:v>4009</x:v>
       </x:c>
       <x:c r="E844" s="0" t="s">
-        <x:v>4001</x:v>
+        <x:v>4010</x:v>
       </x:c>
       <x:c r="F844" s="0" t="s">
-        <x:v>4002</x:v>
+        <x:v>4011</x:v>
       </x:c>
       <x:c r="G844" s="0" t="s">
         <x:v>81</x:v>
@@ -73239,22 +73821,22 @@
         <x:v>1379</x:v>
       </x:c>
       <x:c r="F845" s="0" t="s">
-        <x:v>4003</x:v>
+        <x:v>4012</x:v>
       </x:c>
       <x:c r="G845" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H845" s="1" t="s">
-        <x:v>4004</x:v>
+        <x:v>4013</x:v>
       </x:c>
       <x:c r="I845" s="2" t="s">
-        <x:v>4004</x:v>
+        <x:v>4013</x:v>
       </x:c>
       <x:c r="J845" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K845" s="3" t="s">
-        <x:v>4004</x:v>
+        <x:v>4013</x:v>
       </x:c>
       <x:c r="L845" s="0" t="s">
         <x:v>37</x:v>
@@ -73274,7 +73856,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U845" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="V845" s="0" t="s">
         <x:v>40</x:v>
@@ -73284,7 +73866,7 @@
       </x:c>
       <x:c r="X845" s="0" t="s"/>
       <x:c r="Y845" s="0" t="s">
-        <x:v>4005</x:v>
+        <x:v>4014</x:v>
       </x:c>
       <x:c r="Z845" s="0" t="s"/>
       <x:c r="AA845" s="0" t="s"/>
@@ -73301,16 +73883,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C846" s="0" t="s">
-        <x:v>4006</x:v>
+        <x:v>4015</x:v>
       </x:c>
       <x:c r="D846" s="0" t="s">
-        <x:v>4007</x:v>
+        <x:v>4016</x:v>
       </x:c>
       <x:c r="E846" s="0" t="s">
-        <x:v>4008</x:v>
+        <x:v>4017</x:v>
       </x:c>
       <x:c r="F846" s="0" t="s">
-        <x:v>4009</x:v>
+        <x:v>4018</x:v>
       </x:c>
       <x:c r="G846" s="0" t="s">
         <x:v>81</x:v>
@@ -73368,16 +73950,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C847" s="0" t="s">
-        <x:v>4010</x:v>
+        <x:v>4019</x:v>
       </x:c>
       <x:c r="D847" s="0" t="s">
-        <x:v>4011</x:v>
+        <x:v>4020</x:v>
       </x:c>
       <x:c r="E847" s="0" t="s">
-        <x:v>4012</x:v>
+        <x:v>4021</x:v>
       </x:c>
       <x:c r="F847" s="0" t="s">
-        <x:v>4013</x:v>
+        <x:v>4022</x:v>
       </x:c>
       <x:c r="G847" s="0" t="s">
         <x:v>35</x:v>
@@ -73424,7 +74006,7 @@
       </x:c>
       <x:c r="X847" s="0" t="s"/>
       <x:c r="Y847" s="0" t="s">
-        <x:v>4014</x:v>
+        <x:v>4023</x:v>
       </x:c>
       <x:c r="Z847" s="0" t="s"/>
       <x:c r="AA847" s="0" t="s"/>
@@ -73439,16 +74021,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C848" s="0" t="s">
-        <x:v>4015</x:v>
+        <x:v>4024</x:v>
       </x:c>
       <x:c r="D848" s="0" t="s">
-        <x:v>4016</x:v>
+        <x:v>4025</x:v>
       </x:c>
       <x:c r="E848" s="0" t="s">
-        <x:v>4017</x:v>
+        <x:v>4026</x:v>
       </x:c>
       <x:c r="F848" s="0" t="s">
-        <x:v>4018</x:v>
+        <x:v>4027</x:v>
       </x:c>
       <x:c r="G848" s="0" t="s">
         <x:v>81</x:v>
@@ -73493,7 +74075,7 @@
       </x:c>
       <x:c r="X848" s="0" t="s"/>
       <x:c r="Y848" s="0" t="s">
-        <x:v>4019</x:v>
+        <x:v>4028</x:v>
       </x:c>
       <x:c r="Z848" s="0" t="s"/>
       <x:c r="AA848" s="0" t="s"/>
@@ -73510,16 +74092,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C849" s="0" t="s">
-        <x:v>4020</x:v>
+        <x:v>4029</x:v>
       </x:c>
       <x:c r="D849" s="0" t="s">
-        <x:v>4021</x:v>
+        <x:v>4030</x:v>
       </x:c>
       <x:c r="E849" s="0" t="s">
-        <x:v>4022</x:v>
+        <x:v>4031</x:v>
       </x:c>
       <x:c r="F849" s="0" t="s">
-        <x:v>4023</x:v>
+        <x:v>4032</x:v>
       </x:c>
       <x:c r="G849" s="0" t="s">
         <x:v>35</x:v>
@@ -73581,16 +74163,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C850" s="0" t="s">
-        <x:v>4024</x:v>
+        <x:v>4033</x:v>
       </x:c>
       <x:c r="D850" s="0" t="s">
-        <x:v>4025</x:v>
+        <x:v>4034</x:v>
       </x:c>
       <x:c r="E850" s="0" t="s">
-        <x:v>4026</x:v>
+        <x:v>4035</x:v>
       </x:c>
       <x:c r="F850" s="0" t="s">
-        <x:v>4027</x:v>
+        <x:v>4036</x:v>
       </x:c>
       <x:c r="G850" s="0" t="s">
         <x:v>81</x:v>
@@ -73636,10 +74218,10 @@
       <x:c r="X850" s="0" t="s"/>
       <x:c r="Y850" s="0" t="s"/>
       <x:c r="Z850" s="0" t="s">
-        <x:v>4028</x:v>
+        <x:v>4037</x:v>
       </x:c>
       <x:c r="AA850" s="0" t="s">
-        <x:v>4029</x:v>
+        <x:v>4038</x:v>
       </x:c>
       <x:c r="AB850" s="0" t="s">
         <x:v>52</x:v>
@@ -73654,34 +74236,34 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C851" s="0" t="s">
-        <x:v>4030</x:v>
+        <x:v>4039</x:v>
       </x:c>
       <x:c r="D851" s="0" t="s">
-        <x:v>4031</x:v>
+        <x:v>4040</x:v>
       </x:c>
       <x:c r="E851" s="0" t="s">
-        <x:v>4032</x:v>
+        <x:v>4041</x:v>
       </x:c>
       <x:c r="F851" s="0" t="s">
-        <x:v>4033</x:v>
+        <x:v>4042</x:v>
       </x:c>
       <x:c r="G851" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="H851" s="1" t="s">
-        <x:v>4034</x:v>
+        <x:v>4043</x:v>
       </x:c>
       <x:c r="I851" s="2" t="s">
-        <x:v>4034</x:v>
+        <x:v>4043</x:v>
       </x:c>
       <x:c r="J851" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K851" s="3" t="s">
-        <x:v>4034</x:v>
+        <x:v>4043</x:v>
       </x:c>
       <x:c r="L851" s="0" t="s">
-        <x:v>4035</x:v>
+        <x:v>4044</x:v>
       </x:c>
       <x:c r="M851" s="0" t="s">
         <x:v>37</x:v>
@@ -73695,10 +74277,10 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="R851" s="0" t="s">
-        <x:v>4036</x:v>
+        <x:v>4045</x:v>
       </x:c>
       <x:c r="S851" s="0" t="s">
-        <x:v>3968</x:v>
+        <x:v>3977</x:v>
       </x:c>
       <x:c r="T851" s="0" t="s">
         <x:v>257</x:v>
@@ -73729,16 +74311,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C852" s="0" t="s">
-        <x:v>4015</x:v>
+        <x:v>4024</x:v>
       </x:c>
       <x:c r="D852" s="0" t="s">
-        <x:v>4016</x:v>
+        <x:v>4025</x:v>
       </x:c>
       <x:c r="E852" s="0" t="s">
-        <x:v>4017</x:v>
+        <x:v>4026</x:v>
       </x:c>
       <x:c r="F852" s="0" t="s">
-        <x:v>4037</x:v>
+        <x:v>4046</x:v>
       </x:c>
       <x:c r="G852" s="0" t="s">
         <x:v>106</x:v>
@@ -73756,7 +74338,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="L852" s="0" t="s">
-        <x:v>4038</x:v>
+        <x:v>4047</x:v>
       </x:c>
       <x:c r="M852" s="0" t="s">
         <x:v>37</x:v>
@@ -73768,11 +74350,11 @@
       <x:c r="P852" s="0" t="s"/>
       <x:c r="Q852" s="0" t="s"/>
       <x:c r="R852" s="0" t="s">
-        <x:v>4039</x:v>
+        <x:v>4048</x:v>
       </x:c>
       <x:c r="S852" s="0" t="s"/>
       <x:c r="T852" s="0" t="s">
-        <x:v>3911</x:v>
+        <x:v>3919</x:v>
       </x:c>
       <x:c r="U852" s="0" t="s">
         <x:v>414</x:v>
@@ -73800,31 +74382,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C853" s="0" t="s">
-        <x:v>4006</x:v>
+        <x:v>4015</x:v>
       </x:c>
       <x:c r="D853" s="0" t="s">
-        <x:v>4007</x:v>
+        <x:v>4016</x:v>
       </x:c>
       <x:c r="E853" s="0" t="s">
-        <x:v>4008</x:v>
+        <x:v>4017</x:v>
       </x:c>
       <x:c r="F853" s="0" t="s">
-        <x:v>4040</x:v>
+        <x:v>4049</x:v>
       </x:c>
       <x:c r="G853" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="H853" s="1" t="s">
-        <x:v>4041</x:v>
+        <x:v>4050</x:v>
       </x:c>
       <x:c r="I853" s="2" t="s">
-        <x:v>4041</x:v>
+        <x:v>4050</x:v>
       </x:c>
       <x:c r="J853" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K853" s="3" t="s">
-        <x:v>4041</x:v>
+        <x:v>4050</x:v>
       </x:c>
       <x:c r="L853" s="0" t="s">
         <x:v>1124</x:v>
@@ -73842,7 +74424,7 @@
       </x:c>
       <x:c r="R853" s="0" t="s"/>
       <x:c r="S853" s="0" t="s">
-        <x:v>3968</x:v>
+        <x:v>3977</x:v>
       </x:c>
       <x:c r="T853" s="0" t="s">
         <x:v>2469</x:v>
@@ -73873,34 +74455,34 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C854" s="0" t="s">
-        <x:v>4030</x:v>
+        <x:v>4039</x:v>
       </x:c>
       <x:c r="D854" s="0" t="s">
-        <x:v>4031</x:v>
+        <x:v>4040</x:v>
       </x:c>
       <x:c r="E854" s="0" t="s">
-        <x:v>4032</x:v>
+        <x:v>4041</x:v>
       </x:c>
       <x:c r="F854" s="0" t="s">
-        <x:v>4042</x:v>
+        <x:v>4051</x:v>
       </x:c>
       <x:c r="G854" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="H854" s="1" t="s">
-        <x:v>4043</x:v>
+        <x:v>4052</x:v>
       </x:c>
       <x:c r="I854" s="2" t="s">
-        <x:v>4043</x:v>
+        <x:v>4052</x:v>
       </x:c>
       <x:c r="J854" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K854" s="3" t="s">
-        <x:v>4043</x:v>
+        <x:v>4052</x:v>
       </x:c>
       <x:c r="L854" s="0" t="s">
-        <x:v>4044</x:v>
+        <x:v>4053</x:v>
       </x:c>
       <x:c r="M854" s="0" t="s">
         <x:v>37</x:v>
@@ -73914,10 +74496,10 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="R854" s="0" t="s">
-        <x:v>4045</x:v>
+        <x:v>4054</x:v>
       </x:c>
       <x:c r="S854" s="0" t="s">
-        <x:v>3968</x:v>
+        <x:v>3977</x:v>
       </x:c>
       <x:c r="T854" s="0" t="s">
         <x:v>257</x:v>
@@ -73948,16 +74530,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C855" s="0" t="s">
-        <x:v>4046</x:v>
+        <x:v>4055</x:v>
       </x:c>
       <x:c r="D855" s="0" t="s">
-        <x:v>4047</x:v>
+        <x:v>4056</x:v>
       </x:c>
       <x:c r="E855" s="0" t="s">
-        <x:v>4048</x:v>
+        <x:v>4057</x:v>
       </x:c>
       <x:c r="F855" s="0" t="s">
-        <x:v>4049</x:v>
+        <x:v>4058</x:v>
       </x:c>
       <x:c r="G855" s="0" t="s">
         <x:v>35</x:v>
@@ -74019,31 +74601,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C856" s="0" t="s">
-        <x:v>4050</x:v>
+        <x:v>4059</x:v>
       </x:c>
       <x:c r="D856" s="0" t="s">
-        <x:v>4051</x:v>
+        <x:v>4060</x:v>
       </x:c>
       <x:c r="E856" s="0" t="s">
-        <x:v>4052</x:v>
+        <x:v>4061</x:v>
       </x:c>
       <x:c r="F856" s="0" t="s">
-        <x:v>4053</x:v>
+        <x:v>4062</x:v>
       </x:c>
       <x:c r="G856" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H856" s="1" t="s">
-        <x:v>4054</x:v>
+        <x:v>4063</x:v>
       </x:c>
       <x:c r="I856" s="2" t="s">
-        <x:v>4054</x:v>
+        <x:v>4063</x:v>
       </x:c>
       <x:c r="J856" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K856" s="3" t="s">
-        <x:v>4054</x:v>
+        <x:v>4063</x:v>
       </x:c>
       <x:c r="L856" s="0" t="s">
         <x:v>37</x:v>
@@ -74071,11 +74653,11 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="W856" s="0" t="s">
-        <x:v>3698</x:v>
+        <x:v>3699</x:v>
       </x:c>
       <x:c r="X856" s="0" t="s"/>
       <x:c r="Y856" s="0" t="s">
-        <x:v>4055</x:v>
+        <x:v>4064</x:v>
       </x:c>
       <x:c r="Z856" s="0" t="s"/>
       <x:c r="AA856" s="0" t="s"/>
@@ -74092,16 +74674,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C857" s="0" t="s">
-        <x:v>4056</x:v>
+        <x:v>4065</x:v>
       </x:c>
       <x:c r="D857" s="0" t="s">
-        <x:v>4057</x:v>
+        <x:v>4066</x:v>
       </x:c>
       <x:c r="E857" s="0" t="s">
-        <x:v>4058</x:v>
+        <x:v>4067</x:v>
       </x:c>
       <x:c r="F857" s="0" t="s">
-        <x:v>4059</x:v>
+        <x:v>4068</x:v>
       </x:c>
       <x:c r="G857" s="0" t="s">
         <x:v>35</x:v>
@@ -74148,7 +74730,7 @@
       </x:c>
       <x:c r="X857" s="0" t="s"/>
       <x:c r="Y857" s="0" t="s">
-        <x:v>4060</x:v>
+        <x:v>4069</x:v>
       </x:c>
       <x:c r="Z857" s="0" t="s"/>
       <x:c r="AA857" s="0" t="s"/>
@@ -74163,22 +74745,22 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C858" s="0" t="s">
-        <x:v>4061</x:v>
+        <x:v>4070</x:v>
       </x:c>
       <x:c r="D858" s="0" t="s">
-        <x:v>4062</x:v>
+        <x:v>4071</x:v>
       </x:c>
       <x:c r="E858" s="0" t="s">
-        <x:v>4063</x:v>
+        <x:v>4072</x:v>
       </x:c>
       <x:c r="F858" s="0" t="s">
-        <x:v>4064</x:v>
+        <x:v>4073</x:v>
       </x:c>
       <x:c r="G858" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="H858" s="1" t="s">
-        <x:v>4065</x:v>
+        <x:v>4074</x:v>
       </x:c>
       <x:c r="I858" s="2" t="s">
         <x:v>3690</x:v>
@@ -74198,7 +74780,7 @@
       </x:c>
       <x:c r="O858" s="0" t="s"/>
       <x:c r="P858" s="0" t="s">
-        <x:v>4066</x:v>
+        <x:v>4075</x:v>
       </x:c>
       <x:c r="Q858" s="0" t="s"/>
       <x:c r="R858" s="0" t="s"/>
@@ -74232,31 +74814,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C859" s="0" t="s">
-        <x:v>4067</x:v>
+        <x:v>4076</x:v>
       </x:c>
       <x:c r="D859" s="0" t="s">
-        <x:v>4068</x:v>
+        <x:v>4077</x:v>
       </x:c>
       <x:c r="E859" s="0" t="s">
-        <x:v>4069</x:v>
+        <x:v>4078</x:v>
       </x:c>
       <x:c r="F859" s="0" t="s">
-        <x:v>4070</x:v>
+        <x:v>4079</x:v>
       </x:c>
       <x:c r="G859" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="H859" s="1" t="s">
-        <x:v>4071</x:v>
+        <x:v>4080</x:v>
       </x:c>
       <x:c r="I859" s="2" t="s">
-        <x:v>4071</x:v>
+        <x:v>4080</x:v>
       </x:c>
       <x:c r="J859" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K859" s="3" t="s">
-        <x:v>4071</x:v>
+        <x:v>4080</x:v>
       </x:c>
       <x:c r="L859" s="0" t="s"/>
       <x:c r="M859" s="0" t="s">
@@ -74301,16 +74883,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C860" s="0" t="s">
-        <x:v>4072</x:v>
+        <x:v>4081</x:v>
       </x:c>
       <x:c r="D860" s="0" t="s">
-        <x:v>4073</x:v>
+        <x:v>4082</x:v>
       </x:c>
       <x:c r="E860" s="0" t="s">
-        <x:v>4074</x:v>
+        <x:v>4083</x:v>
       </x:c>
       <x:c r="F860" s="0" t="s">
-        <x:v>4075</x:v>
+        <x:v>4084</x:v>
       </x:c>
       <x:c r="G860" s="0" t="s">
         <x:v>35</x:v>
@@ -74340,7 +74922,7 @@
       <x:c r="R860" s="0" t="s"/>
       <x:c r="S860" s="0" t="s"/>
       <x:c r="T860" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U860" s="0" t="s">
         <x:v>50</x:v>
@@ -74353,7 +74935,7 @@
       </x:c>
       <x:c r="X860" s="0" t="s"/>
       <x:c r="Y860" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z860" s="0" t="s">
         <x:v>3470</x:v>
@@ -74374,31 +74956,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C861" s="0" t="s">
-        <x:v>4076</x:v>
+        <x:v>4085</x:v>
       </x:c>
       <x:c r="D861" s="0" t="s">
-        <x:v>4077</x:v>
+        <x:v>4086</x:v>
       </x:c>
       <x:c r="E861" s="0" t="s">
-        <x:v>4078</x:v>
+        <x:v>4087</x:v>
       </x:c>
       <x:c r="F861" s="0" t="s">
-        <x:v>4079</x:v>
+        <x:v>4088</x:v>
       </x:c>
       <x:c r="G861" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H861" s="1" t="s">
-        <x:v>4080</x:v>
+        <x:v>4089</x:v>
       </x:c>
       <x:c r="I861" s="2" t="s">
-        <x:v>4080</x:v>
+        <x:v>4089</x:v>
       </x:c>
       <x:c r="J861" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K861" s="3" t="s">
-        <x:v>4080</x:v>
+        <x:v>4089</x:v>
       </x:c>
       <x:c r="L861" s="0" t="s">
         <x:v>37</x:v>
@@ -74447,16 +75029,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C862" s="0" t="s">
-        <x:v>4081</x:v>
+        <x:v>4090</x:v>
       </x:c>
       <x:c r="D862" s="0" t="s">
-        <x:v>4082</x:v>
+        <x:v>4091</x:v>
       </x:c>
       <x:c r="E862" s="0" t="s">
-        <x:v>4083</x:v>
+        <x:v>4092</x:v>
       </x:c>
       <x:c r="F862" s="0" t="s">
-        <x:v>4084</x:v>
+        <x:v>4093</x:v>
       </x:c>
       <x:c r="G862" s="0" t="s">
         <x:v>35</x:v>
@@ -74518,31 +75100,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C863" s="0" t="s">
-        <x:v>4085</x:v>
+        <x:v>4094</x:v>
       </x:c>
       <x:c r="D863" s="0" t="s">
-        <x:v>4086</x:v>
+        <x:v>4095</x:v>
       </x:c>
       <x:c r="E863" s="0" t="s">
-        <x:v>4087</x:v>
+        <x:v>4096</x:v>
       </x:c>
       <x:c r="F863" s="0" t="s">
-        <x:v>4088</x:v>
+        <x:v>4097</x:v>
       </x:c>
       <x:c r="G863" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H863" s="1" t="s">
-        <x:v>4089</x:v>
+        <x:v>4098</x:v>
       </x:c>
       <x:c r="I863" s="2" t="s">
-        <x:v>4089</x:v>
+        <x:v>4098</x:v>
       </x:c>
       <x:c r="J863" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K863" s="3" t="s">
-        <x:v>4089</x:v>
+        <x:v>4098</x:v>
       </x:c>
       <x:c r="L863" s="0" t="s"/>
       <x:c r="M863" s="0" t="s">
@@ -74559,7 +75141,7 @@
       <x:c r="R863" s="0" t="s"/>
       <x:c r="S863" s="0" t="s"/>
       <x:c r="T863" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U863" s="0" t="s">
         <x:v>158</x:v>
@@ -74572,7 +75154,7 @@
       </x:c>
       <x:c r="X863" s="0" t="s"/>
       <x:c r="Y863" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z863" s="0" t="s"/>
       <x:c r="AA863" s="0" t="s"/>
@@ -74589,31 +75171,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C864" s="0" t="s">
-        <x:v>4090</x:v>
+        <x:v>4099</x:v>
       </x:c>
       <x:c r="D864" s="0" t="s">
-        <x:v>4091</x:v>
+        <x:v>4100</x:v>
       </x:c>
       <x:c r="E864" s="0" t="s">
-        <x:v>4092</x:v>
+        <x:v>4101</x:v>
       </x:c>
       <x:c r="F864" s="0" t="s">
-        <x:v>4093</x:v>
+        <x:v>4102</x:v>
       </x:c>
       <x:c r="G864" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H864" s="1" t="s">
-        <x:v>4094</x:v>
+        <x:v>4103</x:v>
       </x:c>
       <x:c r="I864" s="2" t="s">
-        <x:v>4094</x:v>
+        <x:v>4103</x:v>
       </x:c>
       <x:c r="J864" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K864" s="3" t="s">
-        <x:v>4094</x:v>
+        <x:v>4103</x:v>
       </x:c>
       <x:c r="L864" s="0" t="s"/>
       <x:c r="M864" s="0" t="s">
@@ -74628,7 +75210,7 @@
       <x:c r="R864" s="0" t="s"/>
       <x:c r="S864" s="0" t="s"/>
       <x:c r="T864" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U864" s="0" t="s">
         <x:v>158</x:v>
@@ -74641,7 +75223,7 @@
       </x:c>
       <x:c r="X864" s="0" t="s"/>
       <x:c r="Y864" s="0" t="s">
-        <x:v>3807</x:v>
+        <x:v>3812</x:v>
       </x:c>
       <x:c r="Z864" s="0" t="s"/>
       <x:c r="AA864" s="0" t="s"/>
@@ -74658,16 +75240,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C865" s="0" t="s">
-        <x:v>4095</x:v>
+        <x:v>4104</x:v>
       </x:c>
       <x:c r="D865" s="0" t="s">
-        <x:v>4096</x:v>
+        <x:v>4105</x:v>
       </x:c>
       <x:c r="E865" s="0" t="s">
-        <x:v>4097</x:v>
+        <x:v>4106</x:v>
       </x:c>
       <x:c r="F865" s="0" t="s">
-        <x:v>4098</x:v>
+        <x:v>4107</x:v>
       </x:c>
       <x:c r="G865" s="0" t="s">
         <x:v>81</x:v>
@@ -74708,7 +75290,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="W865" s="0" t="s">
-        <x:v>4099</x:v>
+        <x:v>4108</x:v>
       </x:c>
       <x:c r="X865" s="0" t="s"/>
       <x:c r="Y865" s="0" t="s"/>
@@ -74727,16 +75309,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C866" s="0" t="s">
-        <x:v>4095</x:v>
+        <x:v>4104</x:v>
       </x:c>
       <x:c r="D866" s="0" t="s">
-        <x:v>4096</x:v>
+        <x:v>4105</x:v>
       </x:c>
       <x:c r="E866" s="0" t="s">
-        <x:v>4097</x:v>
+        <x:v>4106</x:v>
       </x:c>
       <x:c r="F866" s="0" t="s">
-        <x:v>4100</x:v>
+        <x:v>4109</x:v>
       </x:c>
       <x:c r="G866" s="0" t="s">
         <x:v>81</x:v>
@@ -74777,7 +75359,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="W866" s="0" t="s">
-        <x:v>4099</x:v>
+        <x:v>4108</x:v>
       </x:c>
       <x:c r="X866" s="0" t="s"/>
       <x:c r="Y866" s="0" t="s"/>
@@ -74796,16 +75378,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C867" s="0" t="s">
-        <x:v>4095</x:v>
+        <x:v>4104</x:v>
       </x:c>
       <x:c r="D867" s="0" t="s">
-        <x:v>4096</x:v>
+        <x:v>4105</x:v>
       </x:c>
       <x:c r="E867" s="0" t="s">
-        <x:v>4097</x:v>
+        <x:v>4106</x:v>
       </x:c>
       <x:c r="F867" s="0" t="s">
-        <x:v>4101</x:v>
+        <x:v>4110</x:v>
       </x:c>
       <x:c r="G867" s="0" t="s">
         <x:v>106</x:v>
@@ -74823,7 +75405,7 @@
         <x:v>1784</x:v>
       </x:c>
       <x:c r="L867" s="0" t="s">
-        <x:v>4102</x:v>
+        <x:v>4111</x:v>
       </x:c>
       <x:c r="M867" s="0" t="s">
         <x:v>37</x:v>
@@ -74837,11 +75419,11 @@
       </x:c>
       <x:c r="Q867" s="0" t="s"/>
       <x:c r="R867" s="0" t="s">
-        <x:v>4103</x:v>
+        <x:v>4112</x:v>
       </x:c>
       <x:c r="S867" s="0" t="s"/>
       <x:c r="T867" s="0" t="s">
-        <x:v>3911</x:v>
+        <x:v>3919</x:v>
       </x:c>
       <x:c r="U867" s="0" t="s">
         <x:v>69</x:v>
@@ -74869,16 +75451,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C868" s="0" t="s">
-        <x:v>4104</x:v>
+        <x:v>4113</x:v>
       </x:c>
       <x:c r="D868" s="0" t="s">
-        <x:v>4105</x:v>
+        <x:v>4114</x:v>
       </x:c>
       <x:c r="E868" s="0" t="s">
-        <x:v>4106</x:v>
+        <x:v>4115</x:v>
       </x:c>
       <x:c r="F868" s="0" t="s">
-        <x:v>4107</x:v>
+        <x:v>4116</x:v>
       </x:c>
       <x:c r="G868" s="0" t="s">
         <x:v>35</x:v>
@@ -74908,7 +75490,7 @@
       <x:c r="R868" s="0" t="s"/>
       <x:c r="S868" s="0" t="s"/>
       <x:c r="T868" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U868" s="0" t="s">
         <x:v>50</x:v>
@@ -74921,7 +75503,7 @@
       </x:c>
       <x:c r="X868" s="0" t="s"/>
       <x:c r="Y868" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z868" s="0" t="s"/>
       <x:c r="AA868" s="0" t="s"/>
@@ -74938,16 +75520,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C869" s="0" t="s">
-        <x:v>4108</x:v>
+        <x:v>4117</x:v>
       </x:c>
       <x:c r="D869" s="0" t="s">
-        <x:v>4109</x:v>
+        <x:v>4118</x:v>
       </x:c>
       <x:c r="E869" s="0" t="s">
-        <x:v>4110</x:v>
+        <x:v>4119</x:v>
       </x:c>
       <x:c r="F869" s="0" t="s">
-        <x:v>4111</x:v>
+        <x:v>4120</x:v>
       </x:c>
       <x:c r="G869" s="0" t="s">
         <x:v>81</x:v>
@@ -74986,7 +75568,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="W869" s="0" t="s">
-        <x:v>4112</x:v>
+        <x:v>4121</x:v>
       </x:c>
       <x:c r="X869" s="0" t="s"/>
       <x:c r="Y869" s="0" t="s"/>
@@ -75005,16 +75587,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C870" s="0" t="s">
-        <x:v>4113</x:v>
+        <x:v>4122</x:v>
       </x:c>
       <x:c r="D870" s="0" t="s">
-        <x:v>4114</x:v>
+        <x:v>4123</x:v>
       </x:c>
       <x:c r="E870" s="0" t="s">
-        <x:v>4115</x:v>
+        <x:v>4124</x:v>
       </x:c>
       <x:c r="F870" s="0" t="s">
-        <x:v>4116</x:v>
+        <x:v>4125</x:v>
       </x:c>
       <x:c r="G870" s="0" t="s">
         <x:v>35</x:v>
@@ -75044,7 +75626,7 @@
       <x:c r="R870" s="0" t="s"/>
       <x:c r="S870" s="0" t="s"/>
       <x:c r="T870" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U870" s="0" t="s">
         <x:v>50</x:v>
@@ -75057,7 +75639,7 @@
       </x:c>
       <x:c r="X870" s="0" t="s"/>
       <x:c r="Y870" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z870" s="0" t="s"/>
       <x:c r="AA870" s="0" t="s"/>
@@ -75074,16 +75656,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C871" s="0" t="s">
-        <x:v>4117</x:v>
+        <x:v>4126</x:v>
       </x:c>
       <x:c r="D871" s="0" t="s">
-        <x:v>4118</x:v>
+        <x:v>4127</x:v>
       </x:c>
       <x:c r="E871" s="0" t="s">
-        <x:v>4119</x:v>
+        <x:v>4128</x:v>
       </x:c>
       <x:c r="F871" s="0" t="s">
-        <x:v>4120</x:v>
+        <x:v>4129</x:v>
       </x:c>
       <x:c r="G871" s="0" t="s">
         <x:v>35</x:v>
@@ -75115,7 +75697,7 @@
       <x:c r="R871" s="0" t="s"/>
       <x:c r="S871" s="0" t="s"/>
       <x:c r="T871" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U871" s="0" t="s">
         <x:v>50</x:v>
@@ -75124,11 +75706,11 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="W871" s="0" t="s">
-        <x:v>4121</x:v>
+        <x:v>4130</x:v>
       </x:c>
       <x:c r="X871" s="0" t="s"/>
       <x:c r="Y871" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="Z871" s="0" t="s"/>
       <x:c r="AA871" s="0" t="s"/>
@@ -75145,16 +75727,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C872" s="0" t="s">
-        <x:v>4122</x:v>
+        <x:v>4131</x:v>
       </x:c>
       <x:c r="D872" s="0" t="s">
-        <x:v>4123</x:v>
+        <x:v>4132</x:v>
       </x:c>
       <x:c r="E872" s="0" t="s">
-        <x:v>4124</x:v>
+        <x:v>4133</x:v>
       </x:c>
       <x:c r="F872" s="0" t="s">
-        <x:v>4125</x:v>
+        <x:v>4134</x:v>
       </x:c>
       <x:c r="G872" s="0" t="s">
         <x:v>116</x:v>
@@ -75172,7 +75754,7 @@
         <x:v>790</x:v>
       </x:c>
       <x:c r="L872" s="0" t="s">
-        <x:v>4126</x:v>
+        <x:v>4135</x:v>
       </x:c>
       <x:c r="M872" s="0" t="s">
         <x:v>37</x:v>
@@ -75188,10 +75770,10 @@
         <x:v>603</x:v>
       </x:c>
       <x:c r="R872" s="0" t="s">
-        <x:v>4127</x:v>
+        <x:v>4136</x:v>
       </x:c>
       <x:c r="S872" s="0" t="s">
-        <x:v>3968</x:v>
+        <x:v>3977</x:v>
       </x:c>
       <x:c r="T872" s="0" t="s">
         <x:v>605</x:v>
@@ -75222,22 +75804,22 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C873" s="0" t="s">
-        <x:v>4128</x:v>
+        <x:v>4137</x:v>
       </x:c>
       <x:c r="D873" s="0" t="s">
-        <x:v>4129</x:v>
+        <x:v>4138</x:v>
       </x:c>
       <x:c r="E873" s="0" t="s">
-        <x:v>4130</x:v>
+        <x:v>4139</x:v>
       </x:c>
       <x:c r="F873" s="0" t="s">
-        <x:v>4131</x:v>
+        <x:v>4140</x:v>
       </x:c>
       <x:c r="G873" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="H873" s="1" t="s">
-        <x:v>4132</x:v>
+        <x:v>4141</x:v>
       </x:c>
       <x:c r="I873" s="2" t="s">
         <x:v>2719</x:v>
@@ -75249,7 +75831,7 @@
         <x:v>2719</x:v>
       </x:c>
       <x:c r="L873" s="0" t="s">
-        <x:v>4133</x:v>
+        <x:v>4142</x:v>
       </x:c>
       <x:c r="M873" s="0" t="s">
         <x:v>37</x:v>
@@ -75262,10 +75844,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="Q873" s="0" t="s">
-        <x:v>4134</x:v>
+        <x:v>4143</x:v>
       </x:c>
       <x:c r="R873" s="0" t="s">
-        <x:v>4135</x:v>
+        <x:v>4144</x:v>
       </x:c>
       <x:c r="S873" s="0" t="s">
         <x:v>3681</x:v>
@@ -75299,16 +75881,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C874" s="0" t="s">
-        <x:v>4136</x:v>
+        <x:v>4145</x:v>
       </x:c>
       <x:c r="D874" s="0" t="s">
-        <x:v>4137</x:v>
+        <x:v>4146</x:v>
       </x:c>
       <x:c r="E874" s="0" t="s">
-        <x:v>4138</x:v>
+        <x:v>4147</x:v>
       </x:c>
       <x:c r="F874" s="0" t="s">
-        <x:v>4139</x:v>
+        <x:v>4148</x:v>
       </x:c>
       <x:c r="G874" s="0" t="s">
         <x:v>35</x:v>
@@ -75338,7 +75920,7 @@
       <x:c r="R874" s="0" t="s"/>
       <x:c r="S874" s="0" t="s"/>
       <x:c r="T874" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U874" s="0" t="s">
         <x:v>50</x:v>
@@ -75351,7 +75933,7 @@
       </x:c>
       <x:c r="X874" s="0" t="s"/>
       <x:c r="Y874" s="0" t="s">
-        <x:v>4140</x:v>
+        <x:v>4149</x:v>
       </x:c>
       <x:c r="Z874" s="0" t="s"/>
       <x:c r="AA874" s="0" t="s"/>
@@ -75368,16 +75950,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C875" s="0" t="s">
-        <x:v>4128</x:v>
+        <x:v>4137</x:v>
       </x:c>
       <x:c r="D875" s="0" t="s">
-        <x:v>4129</x:v>
+        <x:v>4138</x:v>
       </x:c>
       <x:c r="E875" s="0" t="s">
-        <x:v>4130</x:v>
+        <x:v>4139</x:v>
       </x:c>
       <x:c r="F875" s="0" t="s">
-        <x:v>4141</x:v>
+        <x:v>4150</x:v>
       </x:c>
       <x:c r="G875" s="0" t="s">
         <x:v>35</x:v>
@@ -75424,7 +76006,7 @@
       </x:c>
       <x:c r="X875" s="0" t="s"/>
       <x:c r="Y875" s="0" t="s">
-        <x:v>4142</x:v>
+        <x:v>4151</x:v>
       </x:c>
       <x:c r="Z875" s="0" t="s"/>
       <x:c r="AA875" s="0" t="s"/>
@@ -75441,16 +76023,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C876" s="0" t="s">
-        <x:v>4128</x:v>
+        <x:v>4137</x:v>
       </x:c>
       <x:c r="D876" s="0" t="s">
-        <x:v>4129</x:v>
+        <x:v>4138</x:v>
       </x:c>
       <x:c r="E876" s="0" t="s">
-        <x:v>4130</x:v>
+        <x:v>4139</x:v>
       </x:c>
       <x:c r="F876" s="0" t="s">
-        <x:v>4143</x:v>
+        <x:v>4152</x:v>
       </x:c>
       <x:c r="G876" s="0" t="s">
         <x:v>35</x:v>
@@ -75497,7 +76079,7 @@
       </x:c>
       <x:c r="X876" s="0" t="s"/>
       <x:c r="Y876" s="0" t="s">
-        <x:v>4142</x:v>
+        <x:v>4151</x:v>
       </x:c>
       <x:c r="Z876" s="0" t="s"/>
       <x:c r="AA876" s="0" t="s"/>
@@ -75514,16 +76096,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C877" s="0" t="s">
-        <x:v>4128</x:v>
+        <x:v>4137</x:v>
       </x:c>
       <x:c r="D877" s="0" t="s">
-        <x:v>4129</x:v>
+        <x:v>4138</x:v>
       </x:c>
       <x:c r="E877" s="0" t="s">
-        <x:v>4130</x:v>
+        <x:v>4139</x:v>
       </x:c>
       <x:c r="F877" s="0" t="s">
-        <x:v>4144</x:v>
+        <x:v>4153</x:v>
       </x:c>
       <x:c r="G877" s="0" t="s">
         <x:v>219</x:v>
@@ -75553,7 +76135,7 @@
       <x:c r="P877" s="0" t="s"/>
       <x:c r="Q877" s="0" t="s"/>
       <x:c r="R877" s="0" t="s">
-        <x:v>4145</x:v>
+        <x:v>4154</x:v>
       </x:c>
       <x:c r="S877" s="0" t="s"/>
       <x:c r="T877" s="0" t="s">
@@ -75585,16 +76167,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C878" s="0" t="s">
-        <x:v>4146</x:v>
+        <x:v>4155</x:v>
       </x:c>
       <x:c r="D878" s="0" t="s">
-        <x:v>4147</x:v>
+        <x:v>4156</x:v>
       </x:c>
       <x:c r="E878" s="0" t="s">
-        <x:v>4148</x:v>
+        <x:v>4157</x:v>
       </x:c>
       <x:c r="F878" s="0" t="s">
-        <x:v>4149</x:v>
+        <x:v>4158</x:v>
       </x:c>
       <x:c r="G878" s="0" t="s">
         <x:v>81</x:v>
@@ -75635,11 +76217,11 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="W878" s="0" t="s">
-        <x:v>4150</x:v>
+        <x:v>4159</x:v>
       </x:c>
       <x:c r="X878" s="0" t="s"/>
       <x:c r="Y878" s="0" t="s">
-        <x:v>4151</x:v>
+        <x:v>4160</x:v>
       </x:c>
       <x:c r="Z878" s="0" t="s"/>
       <x:c r="AA878" s="0" t="s"/>
@@ -75656,16 +76238,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C879" s="0" t="s">
-        <x:v>4152</x:v>
+        <x:v>4161</x:v>
       </x:c>
       <x:c r="D879" s="0" t="s">
-        <x:v>4153</x:v>
+        <x:v>4162</x:v>
       </x:c>
       <x:c r="E879" s="0" t="s">
-        <x:v>4154</x:v>
+        <x:v>4163</x:v>
       </x:c>
       <x:c r="F879" s="0" t="s">
-        <x:v>4155</x:v>
+        <x:v>4164</x:v>
       </x:c>
       <x:c r="G879" s="0" t="s">
         <x:v>106</x:v>
@@ -75683,7 +76265,7 @@
         <x:v>913</x:v>
       </x:c>
       <x:c r="L879" s="0" t="s">
-        <x:v>4156</x:v>
+        <x:v>4165</x:v>
       </x:c>
       <x:c r="M879" s="0" t="s">
         <x:v>37</x:v>
@@ -75697,11 +76279,11 @@
       </x:c>
       <x:c r="Q879" s="0" t="s"/>
       <x:c r="R879" s="0" t="s">
-        <x:v>4157</x:v>
+        <x:v>4166</x:v>
       </x:c>
       <x:c r="S879" s="0" t="s"/>
       <x:c r="T879" s="0" t="s">
-        <x:v>3911</x:v>
+        <x:v>3919</x:v>
       </x:c>
       <x:c r="U879" s="0" t="s">
         <x:v>50</x:v>
@@ -75729,33 +76311,35 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C880" s="0" t="s">
-        <x:v>4158</x:v>
+        <x:v>3377</x:v>
       </x:c>
       <x:c r="D880" s="0" t="s">
-        <x:v>4159</x:v>
+        <x:v>3378</x:v>
       </x:c>
       <x:c r="E880" s="0" t="s">
-        <x:v>4160</x:v>
+        <x:v>3379</x:v>
       </x:c>
       <x:c r="F880" s="0" t="s">
-        <x:v>4161</x:v>
+        <x:v>4167</x:v>
       </x:c>
       <x:c r="G880" s="0" t="s">
-        <x:v>4162</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H880" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="I880" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="J880" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K880" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L880" s="0" t="s"/>
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="L880" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="M880" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -75770,25 +76354,25 @@
       <x:c r="R880" s="0" t="s"/>
       <x:c r="S880" s="0" t="s"/>
       <x:c r="T880" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U880" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="V880" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="W880" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>1334</x:v>
       </x:c>
       <x:c r="X880" s="0" t="s"/>
       <x:c r="Y880" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Z880" s="0" t="s"/>
       <x:c r="AA880" s="0" t="s"/>
       <x:c r="AB880" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>3384</x:v>
       </x:c>
       <x:c r="AC880" s="0" t="s"/>
     </x:row>
@@ -75800,34 +76384,34 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C881" s="0" t="s">
-        <x:v>3377</x:v>
+        <x:v>4168</x:v>
       </x:c>
       <x:c r="D881" s="0" t="s">
-        <x:v>3378</x:v>
+        <x:v>4169</x:v>
       </x:c>
       <x:c r="E881" s="0" t="s">
-        <x:v>3379</x:v>
+        <x:v>4170</x:v>
       </x:c>
       <x:c r="F881" s="0" t="s">
-        <x:v>4163</x:v>
+        <x:v>4171</x:v>
       </x:c>
       <x:c r="G881" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H881" s="1" t="s">
-        <x:v>457</x:v>
+        <x:v>4172</x:v>
       </x:c>
       <x:c r="I881" s="2" t="s">
-        <x:v>457</x:v>
+        <x:v>4172</x:v>
       </x:c>
       <x:c r="J881" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K881" s="3" t="s">
-        <x:v>457</x:v>
+        <x:v>4172</x:v>
       </x:c>
       <x:c r="L881" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>4173</x:v>
       </x:c>
       <x:c r="M881" s="0" t="s">
         <x:v>37</x:v>
@@ -75836,32 +76420,34 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="O881" s="0" t="s"/>
-      <x:c r="P881" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Q881" s="0" t="s"/>
-      <x:c r="R881" s="0" t="s"/>
-      <x:c r="S881" s="0" t="s"/>
+      <x:c r="P881" s="0" t="s"/>
+      <x:c r="Q881" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="R881" s="0" t="s">
+        <x:v>4174</x:v>
+      </x:c>
+      <x:c r="S881" s="0" t="s">
+        <x:v>3977</x:v>
+      </x:c>
       <x:c r="T881" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>2469</x:v>
       </x:c>
       <x:c r="U881" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="V881" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="W881" s="0" t="s">
-        <x:v>1334</x:v>
+        <x:v>1941</x:v>
       </x:c>
       <x:c r="X881" s="0" t="s"/>
-      <x:c r="Y881" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
+      <x:c r="Y881" s="0" t="s"/>
       <x:c r="Z881" s="0" t="s"/>
       <x:c r="AA881" s="0" t="s"/>
       <x:c r="AB881" s="0" t="s">
-        <x:v>3384</x:v>
+        <x:v>4175</x:v>
       </x:c>
       <x:c r="AC881" s="0" t="s"/>
     </x:row>
@@ -75873,35 +76459,33 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C882" s="0" t="s">
-        <x:v>4164</x:v>
+        <x:v>4176</x:v>
       </x:c>
       <x:c r="D882" s="0" t="s">
-        <x:v>4165</x:v>
+        <x:v>4177</x:v>
       </x:c>
       <x:c r="E882" s="0" t="s">
-        <x:v>4166</x:v>
+        <x:v>4178</x:v>
       </x:c>
       <x:c r="F882" s="0" t="s">
-        <x:v>4167</x:v>
+        <x:v>4179</x:v>
       </x:c>
       <x:c r="G882" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H882" s="1" t="s">
-        <x:v>4168</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I882" s="2" t="s">
-        <x:v>4168</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="J882" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K882" s="3" t="s">
-        <x:v>4168</x:v>
-      </x:c>
-      <x:c r="L882" s="0" t="s">
-        <x:v>4169</x:v>
-      </x:c>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="L882" s="0" t="s"/>
       <x:c r="M882" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -75910,20 +76494,14 @@
       </x:c>
       <x:c r="O882" s="0" t="s"/>
       <x:c r="P882" s="0" t="s"/>
-      <x:c r="Q882" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="R882" s="0" t="s">
-        <x:v>4170</x:v>
-      </x:c>
-      <x:c r="S882" s="0" t="s">
-        <x:v>3968</x:v>
-      </x:c>
+      <x:c r="Q882" s="0" t="s"/>
+      <x:c r="R882" s="0" t="s"/>
+      <x:c r="S882" s="0" t="s"/>
       <x:c r="T882" s="0" t="s">
-        <x:v>2469</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="U882" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="V882" s="0" t="s">
         <x:v>144</x:v>
@@ -75932,11 +76510,13 @@
         <x:v>1941</x:v>
       </x:c>
       <x:c r="X882" s="0" t="s"/>
-      <x:c r="Y882" s="0" t="s"/>
+      <x:c r="Y882" s="0" t="s">
+        <x:v>3858</x:v>
+      </x:c>
       <x:c r="Z882" s="0" t="s"/>
       <x:c r="AA882" s="0" t="s"/>
       <x:c r="AB882" s="0" t="s">
-        <x:v>4171</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="AC882" s="0" t="s"/>
     </x:row>
@@ -75948,33 +76528,35 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C883" s="0" t="s">
-        <x:v>4172</x:v>
+        <x:v>4180</x:v>
       </x:c>
       <x:c r="D883" s="0" t="s">
-        <x:v>4173</x:v>
+        <x:v>4181</x:v>
       </x:c>
       <x:c r="E883" s="0" t="s">
-        <x:v>4174</x:v>
+        <x:v>4182</x:v>
       </x:c>
       <x:c r="F883" s="0" t="s">
-        <x:v>4175</x:v>
+        <x:v>4183</x:v>
       </x:c>
       <x:c r="G883" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H883" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I883" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J883" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="K883" s="3" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="L883" s="0" t="s"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L883" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="M883" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -75987,107 +76569,3117 @@
       <x:c r="R883" s="0" t="s"/>
       <x:c r="S883" s="0" t="s"/>
       <x:c r="T883" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U883" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="V883" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="W883" s="0" t="s">
         <x:v>1941</x:v>
       </x:c>
       <x:c r="X883" s="0" t="s"/>
       <x:c r="Y883" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>4184</x:v>
       </x:c>
       <x:c r="Z883" s="0" t="s"/>
       <x:c r="AA883" s="0" t="s"/>
-      <x:c r="AB883" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
+      <x:c r="AB883" s="0" t="s"/>
       <x:c r="AC883" s="0" t="s"/>
     </x:row>
     <x:row r="884" spans="1:29">
-      <x:c r="A884" s="0" t="s"/>
-      <x:c r="B884" s="0" t="s"/>
-      <x:c r="C884" s="0" t="s"/>
-      <x:c r="D884" s="0" t="s"/>
-      <x:c r="E884" s="0" t="s"/>
-      <x:c r="F884" s="0" t="s"/>
-      <x:c r="G884" s="0" t="s"/>
-      <x:c r="H884" s="0" t="s"/>
-      <x:c r="I884" s="0" t="s"/>
-      <x:c r="J884" s="0" t="s"/>
-      <x:c r="K884" s="0" t="s"/>
+      <x:c r="A884" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="B884" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C884" s="0" t="s">
+        <x:v>4185</x:v>
+      </x:c>
+      <x:c r="D884" s="0" t="s">
+        <x:v>4186</x:v>
+      </x:c>
+      <x:c r="E884" s="0" t="s">
+        <x:v>4187</x:v>
+      </x:c>
+      <x:c r="F884" s="0" t="s">
+        <x:v>4188</x:v>
+      </x:c>
+      <x:c r="G884" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H884" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I884" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J884" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K884" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="L884" s="0" t="s"/>
-      <x:c r="M884" s="0" t="s"/>
-      <x:c r="N884" s="0" t="s"/>
+      <x:c r="M884" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N884" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="O884" s="0" t="s"/>
-      <x:c r="P884" s="0" t="s"/>
+      <x:c r="P884" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="Q884" s="0" t="s"/>
       <x:c r="R884" s="0" t="s"/>
       <x:c r="S884" s="0" t="s"/>
-      <x:c r="T884" s="0" t="s"/>
-      <x:c r="U884" s="0" t="s"/>
-      <x:c r="V884" s="0" t="s"/>
-      <x:c r="W884" s="0" t="s"/>
+      <x:c r="T884" s="0" t="s">
+        <x:v>3811</x:v>
+      </x:c>
+      <x:c r="U884" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V884" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W884" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
       <x:c r="X884" s="0" t="s"/>
-      <x:c r="Y884" s="0" t="s"/>
+      <x:c r="Y884" s="0" t="s">
+        <x:v>3858</x:v>
+      </x:c>
       <x:c r="Z884" s="0" t="s"/>
       <x:c r="AA884" s="0" t="s"/>
-      <x:c r="AB884" s="0" t="s"/>
+      <x:c r="AB884" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="AC884" s="0" t="s"/>
     </x:row>
     <x:row r="885" spans="1:29">
-      <x:c r="A885" s="0" t="s"/>
-      <x:c r="B885" s="0" t="s"/>
-      <x:c r="C885" s="0" t="s"/>
+      <x:c r="A885" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="B885" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C885" s="0" t="s">
+        <x:v>4189</x:v>
+      </x:c>
       <x:c r="D885" s="0" t="s">
-        <x:v>4176</x:v>
-      </x:c>
-      <x:c r="E885" s="0" t="s"/>
-      <x:c r="F885" s="0" t="s"/>
-      <x:c r="G885" s="0" t="s"/>
-      <x:c r="H885" s="0" t="s">
-        <x:v>4177</x:v>
-      </x:c>
-      <x:c r="I885" s="0" t="s">
-        <x:v>4178</x:v>
+        <x:v>4190</x:v>
+      </x:c>
+      <x:c r="E885" s="0" t="s">
+        <x:v>4191</x:v>
+      </x:c>
+      <x:c r="F885" s="0" t="s">
+        <x:v>4192</x:v>
+      </x:c>
+      <x:c r="G885" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H885" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I885" s="2" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J885" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="K885" s="0" t="s"/>
-      <x:c r="L885" s="0" t="s">
-        <x:v>4179</x:v>
-      </x:c>
+      <x:c r="K885" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L885" s="0" t="s"/>
       <x:c r="M885" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="N885" s="0" t="s">
-        <x:v>4180</x:v>
-      </x:c>
-      <x:c r="O885" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="P885" s="0" t="s">
-        <x:v>4181</x:v>
-      </x:c>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O885" s="0" t="s"/>
+      <x:c r="P885" s="0" t="s"/>
       <x:c r="Q885" s="0" t="s"/>
       <x:c r="R885" s="0" t="s"/>
       <x:c r="S885" s="0" t="s"/>
-      <x:c r="T885" s="0" t="s"/>
-      <x:c r="U885" s="0" t="s"/>
-      <x:c r="V885" s="0" t="s"/>
-      <x:c r="W885" s="0" t="s"/>
+      <x:c r="T885" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="U885" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="V885" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W885" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
       <x:c r="X885" s="0" t="s"/>
       <x:c r="Y885" s="0" t="s"/>
       <x:c r="Z885" s="0" t="s"/>
       <x:c r="AA885" s="0" t="s"/>
-      <x:c r="AB885" s="0" t="s"/>
+      <x:c r="AB885" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
       <x:c r="AC885" s="0" t="s"/>
+    </x:row>
+    <x:row r="886" spans="1:29">
+      <x:c r="A886" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="B886" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C886" s="0" t="s">
+        <x:v>4193</x:v>
+      </x:c>
+      <x:c r="D886" s="0" t="s">
+        <x:v>4194</x:v>
+      </x:c>
+      <x:c r="E886" s="0" t="s">
+        <x:v>4195</x:v>
+      </x:c>
+      <x:c r="F886" s="0" t="s">
+        <x:v>4196</x:v>
+      </x:c>
+      <x:c r="G886" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H886" s="1" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="I886" s="2" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="J886" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K886" s="3" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="L886" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M886" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N886" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O886" s="0" t="s"/>
+      <x:c r="P886" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q886" s="0" t="s"/>
+      <x:c r="R886" s="0" t="s"/>
+      <x:c r="S886" s="0" t="s"/>
+      <x:c r="T886" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="U886" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="V886" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W886" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="X886" s="0" t="s"/>
+      <x:c r="Y886" s="0" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="Z886" s="0" t="s"/>
+      <x:c r="AA886" s="0" t="s"/>
+      <x:c r="AB886" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC886" s="0" t="s"/>
+    </x:row>
+    <x:row r="887" spans="1:29">
+      <x:c r="A887" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="B887" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C887" s="0" t="s"/>
+      <x:c r="D887" s="0" t="s">
+        <x:v>2144</x:v>
+      </x:c>
+      <x:c r="E887" s="0" t="s"/>
+      <x:c r="F887" s="0" t="s"/>
+      <x:c r="G887" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H887" s="1" t="s">
+        <x:v>4197</x:v>
+      </x:c>
+      <x:c r="I887" s="2" t="s">
+        <x:v>4197</x:v>
+      </x:c>
+      <x:c r="J887" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K887" s="3" t="s">
+        <x:v>4197</x:v>
+      </x:c>
+      <x:c r="L887" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M887" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N887" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O887" s="0" t="s"/>
+      <x:c r="P887" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q887" s="0" t="s"/>
+      <x:c r="R887" s="0" t="s"/>
+      <x:c r="S887" s="0" t="s"/>
+      <x:c r="T887" s="0" t="s">
+        <x:v>2146</x:v>
+      </x:c>
+      <x:c r="U887" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="V887" s="0" t="s"/>
+      <x:c r="W887" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="X887" s="0" t="s"/>
+      <x:c r="Y887" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="Z887" s="0" t="s"/>
+      <x:c r="AA887" s="0" t="s"/>
+      <x:c r="AB887" s="0" t="s"/>
+      <x:c r="AC887" s="0" t="s"/>
+    </x:row>
+    <x:row r="888" spans="1:29">
+      <x:c r="A888" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B888" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C888" s="0" t="s">
+        <x:v>1283</x:v>
+      </x:c>
+      <x:c r="D888" s="0" t="s">
+        <x:v>1284</x:v>
+      </x:c>
+      <x:c r="E888" s="0" t="s">
+        <x:v>1285</x:v>
+      </x:c>
+      <x:c r="F888" s="0" t="s">
+        <x:v>4198</x:v>
+      </x:c>
+      <x:c r="G888" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H888" s="1" t="s">
+        <x:v>4199</x:v>
+      </x:c>
+      <x:c r="I888" s="2" t="s">
+        <x:v>4199</x:v>
+      </x:c>
+      <x:c r="J888" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K888" s="3" t="s">
+        <x:v>4199</x:v>
+      </x:c>
+      <x:c r="L888" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M888" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N888" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O888" s="0" t="s"/>
+      <x:c r="P888" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q888" s="0" t="s"/>
+      <x:c r="R888" s="0" t="s"/>
+      <x:c r="S888" s="0" t="s"/>
+      <x:c r="T888" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U888" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V888" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W888" s="0" t="s">
+        <x:v>1192</x:v>
+      </x:c>
+      <x:c r="X888" s="0" t="s"/>
+      <x:c r="Y888" s="0" t="s">
+        <x:v>4200</x:v>
+      </x:c>
+      <x:c r="Z888" s="0" t="s"/>
+      <x:c r="AA888" s="0" t="s"/>
+      <x:c r="AB888" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC888" s="0" t="s"/>
+    </x:row>
+    <x:row r="889" spans="1:29">
+      <x:c r="A889" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B889" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C889" s="0" t="s">
+        <x:v>4201</x:v>
+      </x:c>
+      <x:c r="D889" s="0" t="s">
+        <x:v>4202</x:v>
+      </x:c>
+      <x:c r="E889" s="0" t="s">
+        <x:v>4203</x:v>
+      </x:c>
+      <x:c r="F889" s="0" t="s">
+        <x:v>4204</x:v>
+      </x:c>
+      <x:c r="G889" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H889" s="1" t="s">
+        <x:v>2798</x:v>
+      </x:c>
+      <x:c r="I889" s="2" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="J889" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K889" s="3" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="L889" s="0" t="s">
+        <x:v>4205</x:v>
+      </x:c>
+      <x:c r="M889" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N889" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O889" s="0" t="s"/>
+      <x:c r="P889" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q889" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="R889" s="0" t="s">
+        <x:v>4206</x:v>
+      </x:c>
+      <x:c r="S889" s="0" t="s">
+        <x:v>3977</x:v>
+      </x:c>
+      <x:c r="T889" s="0" t="s">
+        <x:v>2469</x:v>
+      </x:c>
+      <x:c r="U889" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="V889" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="W889" s="0" t="s">
+        <x:v>4130</x:v>
+      </x:c>
+      <x:c r="X889" s="0" t="s"/>
+      <x:c r="Y889" s="0" t="s"/>
+      <x:c r="Z889" s="0" t="s"/>
+      <x:c r="AA889" s="0" t="s"/>
+      <x:c r="AB889" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC889" s="0" t="s"/>
+    </x:row>
+    <x:row r="890" spans="1:29">
+      <x:c r="A890" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B890" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C890" s="0" t="s">
+        <x:v>4201</x:v>
+      </x:c>
+      <x:c r="D890" s="0" t="s">
+        <x:v>4202</x:v>
+      </x:c>
+      <x:c r="E890" s="0" t="s">
+        <x:v>4203</x:v>
+      </x:c>
+      <x:c r="F890" s="0" t="s">
+        <x:v>4207</x:v>
+      </x:c>
+      <x:c r="G890" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H890" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I890" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J890" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K890" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L890" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M890" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N890" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O890" s="0" t="s"/>
+      <x:c r="P890" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q890" s="0" t="s"/>
+      <x:c r="R890" s="0" t="s"/>
+      <x:c r="S890" s="0" t="s"/>
+      <x:c r="T890" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U890" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V890" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W890" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="X890" s="0" t="s"/>
+      <x:c r="Y890" s="0" t="s">
+        <x:v>2567</x:v>
+      </x:c>
+      <x:c r="Z890" s="0" t="s"/>
+      <x:c r="AA890" s="0" t="s"/>
+      <x:c r="AB890" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC890" s="0" t="s"/>
+    </x:row>
+    <x:row r="891" spans="1:29">
+      <x:c r="A891" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B891" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C891" s="0" t="s">
+        <x:v>4208</x:v>
+      </x:c>
+      <x:c r="D891" s="0" t="s">
+        <x:v>4209</x:v>
+      </x:c>
+      <x:c r="E891" s="0" t="s">
+        <x:v>4210</x:v>
+      </x:c>
+      <x:c r="F891" s="0" t="s">
+        <x:v>4211</x:v>
+      </x:c>
+      <x:c r="G891" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H891" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I891" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J891" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K891" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L891" s="0" t="s">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M891" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N891" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O891" s="0" t="s"/>
+      <x:c r="P891" s="0" t="s"/>
+      <x:c r="Q891" s="0" t="s"/>
+      <x:c r="R891" s="0" t="s">
+        <x:v>4213</x:v>
+      </x:c>
+      <x:c r="S891" s="0" t="s"/>
+      <x:c r="T891" s="0" t="s">
+        <x:v>3919</x:v>
+      </x:c>
+      <x:c r="U891" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V891" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W891" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X891" s="0" t="s"/>
+      <x:c r="Y891" s="0" t="s"/>
+      <x:c r="Z891" s="0" t="s"/>
+      <x:c r="AA891" s="0" t="s"/>
+      <x:c r="AB891" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC891" s="0" t="s"/>
+    </x:row>
+    <x:row r="892" spans="1:29">
+      <x:c r="A892" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B892" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C892" s="0" t="s">
+        <x:v>4214</x:v>
+      </x:c>
+      <x:c r="D892" s="0" t="s">
+        <x:v>4215</x:v>
+      </x:c>
+      <x:c r="E892" s="0" t="s">
+        <x:v>4216</x:v>
+      </x:c>
+      <x:c r="F892" s="0" t="s">
+        <x:v>4217</x:v>
+      </x:c>
+      <x:c r="G892" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H892" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I892" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J892" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K892" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L892" s="0" t="s"/>
+      <x:c r="M892" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N892" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O892" s="0" t="s"/>
+      <x:c r="P892" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="Q892" s="0" t="s"/>
+      <x:c r="R892" s="0" t="s"/>
+      <x:c r="S892" s="0" t="s"/>
+      <x:c r="T892" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="U892" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V892" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W892" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X892" s="0" t="s"/>
+      <x:c r="Y892" s="0" t="s"/>
+      <x:c r="Z892" s="0" t="s"/>
+      <x:c r="AA892" s="0" t="s"/>
+      <x:c r="AB892" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC892" s="0" t="s"/>
+    </x:row>
+    <x:row r="893" spans="1:29">
+      <x:c r="A893" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B893" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C893" s="0" t="s">
+        <x:v>4059</x:v>
+      </x:c>
+      <x:c r="D893" s="0" t="s">
+        <x:v>4060</x:v>
+      </x:c>
+      <x:c r="E893" s="0" t="s">
+        <x:v>4061</x:v>
+      </x:c>
+      <x:c r="F893" s="0" t="s">
+        <x:v>4218</x:v>
+      </x:c>
+      <x:c r="G893" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H893" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I893" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J893" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K893" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L893" s="0" t="s"/>
+      <x:c r="M893" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N893" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O893" s="0" t="s"/>
+      <x:c r="P893" s="0" t="s"/>
+      <x:c r="Q893" s="0" t="s"/>
+      <x:c r="R893" s="0" t="s"/>
+      <x:c r="S893" s="0" t="s"/>
+      <x:c r="T893" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="U893" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V893" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W893" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X893" s="0" t="s"/>
+      <x:c r="Y893" s="0" t="s"/>
+      <x:c r="Z893" s="0" t="s"/>
+      <x:c r="AA893" s="0" t="s"/>
+      <x:c r="AB893" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC893" s="0" t="s"/>
+    </x:row>
+    <x:row r="894" spans="1:29">
+      <x:c r="A894" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B894" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C894" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="D894" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="E894" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="F894" s="0" t="s">
+        <x:v>4219</x:v>
+      </x:c>
+      <x:c r="G894" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H894" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I894" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J894" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K894" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L894" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M894" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N894" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O894" s="0" t="s"/>
+      <x:c r="P894" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q894" s="0" t="s"/>
+      <x:c r="R894" s="0" t="s"/>
+      <x:c r="S894" s="0" t="s"/>
+      <x:c r="T894" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U894" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V894" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W894" s="0" t="s">
+        <x:v>1334</x:v>
+      </x:c>
+      <x:c r="X894" s="0" t="s"/>
+      <x:c r="Y894" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Z894" s="0" t="s"/>
+      <x:c r="AA894" s="0" t="s"/>
+      <x:c r="AB894" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC894" s="0" t="s"/>
+    </x:row>
+    <x:row r="895" spans="1:29">
+      <x:c r="A895" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B895" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C895" s="0" t="s">
+        <x:v>4220</x:v>
+      </x:c>
+      <x:c r="D895" s="0" t="s">
+        <x:v>4221</x:v>
+      </x:c>
+      <x:c r="E895" s="0" t="s">
+        <x:v>4222</x:v>
+      </x:c>
+      <x:c r="F895" s="0" t="s">
+        <x:v>4223</x:v>
+      </x:c>
+      <x:c r="G895" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H895" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I895" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J895" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K895" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L895" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M895" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N895" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O895" s="0" t="s"/>
+      <x:c r="P895" s="0" t="s"/>
+      <x:c r="Q895" s="0" t="s"/>
+      <x:c r="R895" s="0" t="s"/>
+      <x:c r="S895" s="0" t="s"/>
+      <x:c r="T895" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U895" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V895" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W895" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X895" s="0" t="s"/>
+      <x:c r="Y895" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Z895" s="0" t="s">
+        <x:v>4224</x:v>
+      </x:c>
+      <x:c r="AA895" s="0" t="s">
+        <x:v>4225</x:v>
+      </x:c>
+      <x:c r="AB895" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC895" s="0" t="s"/>
+    </x:row>
+    <x:row r="896" spans="1:29">
+      <x:c r="A896" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B896" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C896" s="0" t="s">
+        <x:v>2002</x:v>
+      </x:c>
+      <x:c r="D896" s="0" t="s">
+        <x:v>2003</x:v>
+      </x:c>
+      <x:c r="E896" s="0" t="s">
+        <x:v>2004</x:v>
+      </x:c>
+      <x:c r="F896" s="0" t="s">
+        <x:v>4226</x:v>
+      </x:c>
+      <x:c r="G896" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H896" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I896" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J896" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K896" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L896" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M896" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N896" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O896" s="0" t="s"/>
+      <x:c r="P896" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q896" s="0" t="s"/>
+      <x:c r="R896" s="0" t="s"/>
+      <x:c r="S896" s="0" t="s"/>
+      <x:c r="T896" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U896" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V896" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W896" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="X896" s="0" t="s"/>
+      <x:c r="Y896" s="0" t="s">
+        <x:v>4227</x:v>
+      </x:c>
+      <x:c r="Z896" s="0" t="s"/>
+      <x:c r="AA896" s="0" t="s"/>
+      <x:c r="AB896" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AC896" s="0" t="s"/>
+    </x:row>
+    <x:row r="897" spans="1:29">
+      <x:c r="A897" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B897" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C897" s="0" t="s">
+        <x:v>4228</x:v>
+      </x:c>
+      <x:c r="D897" s="0" t="s">
+        <x:v>4229</x:v>
+      </x:c>
+      <x:c r="E897" s="0" t="s">
+        <x:v>4230</x:v>
+      </x:c>
+      <x:c r="F897" s="0" t="s">
+        <x:v>4231</x:v>
+      </x:c>
+      <x:c r="G897" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H897" s="1" t="s">
+        <x:v>2379</x:v>
+      </x:c>
+      <x:c r="I897" s="2" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="J897" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K897" s="3" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="L897" s="0" t="s"/>
+      <x:c r="M897" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N897" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O897" s="0" t="s"/>
+      <x:c r="P897" s="0" t="s"/>
+      <x:c r="Q897" s="0" t="s"/>
+      <x:c r="R897" s="0" t="s"/>
+      <x:c r="S897" s="0" t="s"/>
+      <x:c r="T897" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="U897" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="V897" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="W897" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X897" s="0" t="s"/>
+      <x:c r="Y897" s="0" t="s"/>
+      <x:c r="Z897" s="0" t="s"/>
+      <x:c r="AA897" s="0" t="s"/>
+      <x:c r="AB897" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC897" s="0" t="s"/>
+    </x:row>
+    <x:row r="898" spans="1:29">
+      <x:c r="A898" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B898" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C898" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="D898" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="E898" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="F898" s="0" t="s">
+        <x:v>4232</x:v>
+      </x:c>
+      <x:c r="G898" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H898" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="I898" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="J898" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K898" s="3" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="L898" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M898" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N898" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O898" s="0" t="s"/>
+      <x:c r="P898" s="0" t="s"/>
+      <x:c r="Q898" s="0" t="s"/>
+      <x:c r="R898" s="0" t="s"/>
+      <x:c r="S898" s="0" t="s"/>
+      <x:c r="T898" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U898" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="V898" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W898" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X898" s="0" t="s"/>
+      <x:c r="Y898" s="0" t="s">
+        <x:v>4184</x:v>
+      </x:c>
+      <x:c r="Z898" s="0" t="s"/>
+      <x:c r="AA898" s="0" t="s"/>
+      <x:c r="AB898" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC898" s="0" t="s"/>
+    </x:row>
+    <x:row r="899" spans="1:29">
+      <x:c r="A899" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B899" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C899" s="0" t="s">
+        <x:v>4233</x:v>
+      </x:c>
+      <x:c r="D899" s="0" t="s">
+        <x:v>4234</x:v>
+      </x:c>
+      <x:c r="E899" s="0" t="s">
+        <x:v>4235</x:v>
+      </x:c>
+      <x:c r="F899" s="0" t="s">
+        <x:v>4236</x:v>
+      </x:c>
+      <x:c r="G899" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H899" s="1" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="I899" s="2" t="s">
+        <x:v>4237</x:v>
+      </x:c>
+      <x:c r="J899" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K899" s="3" t="s">
+        <x:v>4237</x:v>
+      </x:c>
+      <x:c r="L899" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M899" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N899" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O899" s="0" t="s"/>
+      <x:c r="P899" s="0" t="s">
+        <x:v>4238</x:v>
+      </x:c>
+      <x:c r="Q899" s="0" t="s"/>
+      <x:c r="R899" s="0" t="s"/>
+      <x:c r="S899" s="0" t="s"/>
+      <x:c r="T899" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U899" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V899" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W899" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X899" s="0" t="s"/>
+      <x:c r="Y899" s="0" t="s">
+        <x:v>4184</x:v>
+      </x:c>
+      <x:c r="Z899" s="0" t="s"/>
+      <x:c r="AA899" s="0" t="s"/>
+      <x:c r="AB899" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="AC899" s="0" t="s"/>
+    </x:row>
+    <x:row r="900" spans="1:29">
+      <x:c r="A900" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B900" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C900" s="0" t="s">
+        <x:v>4239</x:v>
+      </x:c>
+      <x:c r="D900" s="0" t="s">
+        <x:v>4240</x:v>
+      </x:c>
+      <x:c r="E900" s="0" t="s">
+        <x:v>4241</x:v>
+      </x:c>
+      <x:c r="F900" s="0" t="s">
+        <x:v>4242</x:v>
+      </x:c>
+      <x:c r="G900" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H900" s="1" t="s">
+        <x:v>4243</x:v>
+      </x:c>
+      <x:c r="I900" s="2" t="s">
+        <x:v>4243</x:v>
+      </x:c>
+      <x:c r="J900" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K900" s="3" t="s">
+        <x:v>4243</x:v>
+      </x:c>
+      <x:c r="L900" s="0" t="s">
+        <x:v>4244</x:v>
+      </x:c>
+      <x:c r="M900" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N900" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O900" s="0" t="s"/>
+      <x:c r="P900" s="0" t="s"/>
+      <x:c r="Q900" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="R900" s="0" t="s">
+        <x:v>4245</x:v>
+      </x:c>
+      <x:c r="S900" s="0" t="s">
+        <x:v>3977</x:v>
+      </x:c>
+      <x:c r="T900" s="0" t="s">
+        <x:v>2469</x:v>
+      </x:c>
+      <x:c r="U900" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="V900" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="W900" s="0" t="s">
+        <x:v>1136</x:v>
+      </x:c>
+      <x:c r="X900" s="0" t="s"/>
+      <x:c r="Y900" s="0" t="s"/>
+      <x:c r="Z900" s="0" t="s"/>
+      <x:c r="AA900" s="0" t="s"/>
+      <x:c r="AB900" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC900" s="0" t="s"/>
+    </x:row>
+    <x:row r="901" spans="1:29">
+      <x:c r="A901" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B901" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C901" s="0" t="s">
+        <x:v>4246</x:v>
+      </x:c>
+      <x:c r="D901" s="0" t="s">
+        <x:v>4247</x:v>
+      </x:c>
+      <x:c r="E901" s="0" t="s">
+        <x:v>4248</x:v>
+      </x:c>
+      <x:c r="F901" s="0" t="s">
+        <x:v>4249</x:v>
+      </x:c>
+      <x:c r="G901" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H901" s="1" t="s">
+        <x:v>4250</x:v>
+      </x:c>
+      <x:c r="I901" s="2" t="s">
+        <x:v>4250</x:v>
+      </x:c>
+      <x:c r="J901" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K901" s="3" t="s">
+        <x:v>4250</x:v>
+      </x:c>
+      <x:c r="L901" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M901" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N901" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O901" s="0" t="s"/>
+      <x:c r="P901" s="0" t="s"/>
+      <x:c r="Q901" s="0" t="s"/>
+      <x:c r="R901" s="0" t="s"/>
+      <x:c r="S901" s="0" t="s"/>
+      <x:c r="T901" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U901" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="V901" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W901" s="0" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="X901" s="0" t="s"/>
+      <x:c r="Y901" s="0" t="s">
+        <x:v>4251</x:v>
+      </x:c>
+      <x:c r="Z901" s="0" t="s"/>
+      <x:c r="AA901" s="0" t="s"/>
+      <x:c r="AB901" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC901" s="0" t="s"/>
+    </x:row>
+    <x:row r="902" spans="1:29">
+      <x:c r="A902" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B902" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C902" s="0" t="s">
+        <x:v>4252</x:v>
+      </x:c>
+      <x:c r="D902" s="0" t="s">
+        <x:v>4253</x:v>
+      </x:c>
+      <x:c r="E902" s="0" t="s">
+        <x:v>4254</x:v>
+      </x:c>
+      <x:c r="F902" s="0" t="s">
+        <x:v>4255</x:v>
+      </x:c>
+      <x:c r="G902" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H902" s="1" t="s">
+        <x:v>4256</x:v>
+      </x:c>
+      <x:c r="I902" s="2" t="s">
+        <x:v>4256</x:v>
+      </x:c>
+      <x:c r="J902" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K902" s="3" t="s">
+        <x:v>4256</x:v>
+      </x:c>
+      <x:c r="L902" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M902" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N902" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O902" s="0" t="s"/>
+      <x:c r="P902" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q902" s="0" t="s"/>
+      <x:c r="R902" s="0" t="s"/>
+      <x:c r="S902" s="0" t="s"/>
+      <x:c r="T902" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U902" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V902" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W902" s="0" t="s">
+        <x:v>4257</x:v>
+      </x:c>
+      <x:c r="X902" s="0" t="s"/>
+      <x:c r="Y902" s="0" t="s">
+        <x:v>4258</x:v>
+      </x:c>
+      <x:c r="Z902" s="0" t="s"/>
+      <x:c r="AA902" s="0" t="s"/>
+      <x:c r="AB902" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC902" s="0" t="s"/>
+    </x:row>
+    <x:row r="903" spans="1:29">
+      <x:c r="A903" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B903" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C903" s="0" t="s">
+        <x:v>4259</x:v>
+      </x:c>
+      <x:c r="D903" s="0" t="s">
+        <x:v>1071</x:v>
+      </x:c>
+      <x:c r="E903" s="0" t="s">
+        <x:v>4260</x:v>
+      </x:c>
+      <x:c r="F903" s="0" t="s">
+        <x:v>4261</x:v>
+      </x:c>
+      <x:c r="G903" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H903" s="1" t="s">
+        <x:v>2054</x:v>
+      </x:c>
+      <x:c r="I903" s="2" t="s">
+        <x:v>2054</x:v>
+      </x:c>
+      <x:c r="J903" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K903" s="3" t="s">
+        <x:v>2054</x:v>
+      </x:c>
+      <x:c r="L903" s="0" t="s">
+        <x:v>2099</x:v>
+      </x:c>
+      <x:c r="M903" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N903" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O903" s="0" t="s"/>
+      <x:c r="P903" s="0" t="s"/>
+      <x:c r="Q903" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="R903" s="0" t="s">
+        <x:v>4245</x:v>
+      </x:c>
+      <x:c r="S903" s="0" t="s">
+        <x:v>3977</x:v>
+      </x:c>
+      <x:c r="T903" s="0" t="s">
+        <x:v>2469</x:v>
+      </x:c>
+      <x:c r="U903" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="V903" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W903" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X903" s="0" t="s"/>
+      <x:c r="Y903" s="0" t="s"/>
+      <x:c r="Z903" s="0" t="s"/>
+      <x:c r="AA903" s="0" t="s"/>
+      <x:c r="AB903" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC903" s="0" t="s"/>
+    </x:row>
+    <x:row r="904" spans="1:29">
+      <x:c r="A904" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B904" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C904" s="0" t="s">
+        <x:v>4262</x:v>
+      </x:c>
+      <x:c r="D904" s="0" t="s">
+        <x:v>4263</x:v>
+      </x:c>
+      <x:c r="E904" s="0" t="s">
+        <x:v>4264</x:v>
+      </x:c>
+      <x:c r="F904" s="0" t="s">
+        <x:v>4265</x:v>
+      </x:c>
+      <x:c r="G904" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H904" s="1" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="I904" s="2" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="J904" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K904" s="3" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="L904" s="0" t="s">
+        <x:v>4266</x:v>
+      </x:c>
+      <x:c r="M904" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N904" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O904" s="0" t="s"/>
+      <x:c r="P904" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q904" s="0" t="s"/>
+      <x:c r="R904" s="0" t="s">
+        <x:v>4267</x:v>
+      </x:c>
+      <x:c r="S904" s="0" t="s"/>
+      <x:c r="T904" s="0" t="s">
+        <x:v>3919</x:v>
+      </x:c>
+      <x:c r="U904" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V904" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W904" s="0" t="s">
+        <x:v>1334</x:v>
+      </x:c>
+      <x:c r="X904" s="0" t="s"/>
+      <x:c r="Y904" s="0" t="s"/>
+      <x:c r="Z904" s="0" t="s"/>
+      <x:c r="AA904" s="0" t="s"/>
+      <x:c r="AB904" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC904" s="0" t="s"/>
+    </x:row>
+    <x:row r="905" spans="1:29">
+      <x:c r="A905" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B905" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C905" s="0" t="s">
+        <x:v>4268</x:v>
+      </x:c>
+      <x:c r="D905" s="0" t="s">
+        <x:v>4269</x:v>
+      </x:c>
+      <x:c r="E905" s="0" t="s">
+        <x:v>4270</x:v>
+      </x:c>
+      <x:c r="F905" s="0" t="s">
+        <x:v>4271</x:v>
+      </x:c>
+      <x:c r="G905" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H905" s="1" t="s">
+        <x:v>4272</x:v>
+      </x:c>
+      <x:c r="I905" s="2" t="s">
+        <x:v>4272</x:v>
+      </x:c>
+      <x:c r="J905" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K905" s="3" t="s">
+        <x:v>4272</x:v>
+      </x:c>
+      <x:c r="L905" s="0" t="s">
+        <x:v>4273</x:v>
+      </x:c>
+      <x:c r="M905" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N905" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O905" s="0" t="s"/>
+      <x:c r="P905" s="0" t="s"/>
+      <x:c r="Q905" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="R905" s="0" t="s">
+        <x:v>4274</x:v>
+      </x:c>
+      <x:c r="S905" s="0" t="s">
+        <x:v>3681</x:v>
+      </x:c>
+      <x:c r="T905" s="0" t="s">
+        <x:v>2469</x:v>
+      </x:c>
+      <x:c r="U905" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="V905" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W905" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X905" s="0" t="s"/>
+      <x:c r="Y905" s="0" t="s"/>
+      <x:c r="Z905" s="0" t="s"/>
+      <x:c r="AA905" s="0" t="s"/>
+      <x:c r="AB905" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC905" s="0" t="s"/>
+    </x:row>
+    <x:row r="906" spans="1:29">
+      <x:c r="A906" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B906" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C906" s="0" t="s">
+        <x:v>4275</x:v>
+      </x:c>
+      <x:c r="D906" s="0" t="s">
+        <x:v>4276</x:v>
+      </x:c>
+      <x:c r="E906" s="0" t="s">
+        <x:v>4277</x:v>
+      </x:c>
+      <x:c r="F906" s="0" t="s">
+        <x:v>4278</x:v>
+      </x:c>
+      <x:c r="G906" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H906" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I906" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J906" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K906" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L906" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M906" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N906" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O906" s="0" t="s"/>
+      <x:c r="P906" s="0" t="s"/>
+      <x:c r="Q906" s="0" t="s"/>
+      <x:c r="R906" s="0" t="s"/>
+      <x:c r="S906" s="0" t="s"/>
+      <x:c r="T906" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U906" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V906" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W906" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X906" s="0" t="s"/>
+      <x:c r="Y906" s="0" t="s">
+        <x:v>4184</x:v>
+      </x:c>
+      <x:c r="Z906" s="0" t="s"/>
+      <x:c r="AA906" s="0" t="s"/>
+      <x:c r="AB906" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC906" s="0" t="s"/>
+    </x:row>
+    <x:row r="907" spans="1:29">
+      <x:c r="A907" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B907" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C907" s="0" t="s">
+        <x:v>4279</x:v>
+      </x:c>
+      <x:c r="D907" s="0" t="s">
+        <x:v>4280</x:v>
+      </x:c>
+      <x:c r="E907" s="0" t="s">
+        <x:v>4281</x:v>
+      </x:c>
+      <x:c r="F907" s="0" t="s">
+        <x:v>4282</x:v>
+      </x:c>
+      <x:c r="G907" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H907" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I907" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J907" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K907" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L907" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M907" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N907" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O907" s="0" t="s"/>
+      <x:c r="P907" s="0" t="s"/>
+      <x:c r="Q907" s="0" t="s"/>
+      <x:c r="R907" s="0" t="s"/>
+      <x:c r="S907" s="0" t="s"/>
+      <x:c r="T907" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U907" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="V907" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W907" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X907" s="0" t="s"/>
+      <x:c r="Y907" s="0" t="s">
+        <x:v>4184</x:v>
+      </x:c>
+      <x:c r="Z907" s="0" t="s"/>
+      <x:c r="AA907" s="0" t="s"/>
+      <x:c r="AB907" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC907" s="0" t="s"/>
+    </x:row>
+    <x:row r="908" spans="1:29">
+      <x:c r="A908" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B908" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C908" s="0" t="s">
+        <x:v>4283</x:v>
+      </x:c>
+      <x:c r="D908" s="0" t="s">
+        <x:v>4284</x:v>
+      </x:c>
+      <x:c r="E908" s="0" t="s">
+        <x:v>4285</x:v>
+      </x:c>
+      <x:c r="F908" s="0" t="s">
+        <x:v>4286</x:v>
+      </x:c>
+      <x:c r="G908" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H908" s="1" t="s">
+        <x:v>4287</x:v>
+      </x:c>
+      <x:c r="I908" s="2" t="s">
+        <x:v>4287</x:v>
+      </x:c>
+      <x:c r="J908" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K908" s="3" t="s">
+        <x:v>4287</x:v>
+      </x:c>
+      <x:c r="L908" s="0" t="s"/>
+      <x:c r="M908" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N908" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O908" s="0" t="s"/>
+      <x:c r="P908" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q908" s="0" t="s"/>
+      <x:c r="R908" s="0" t="s"/>
+      <x:c r="S908" s="0" t="s"/>
+      <x:c r="T908" s="0" t="s">
+        <x:v>3811</x:v>
+      </x:c>
+      <x:c r="U908" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="V908" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="W908" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="X908" s="0" t="s"/>
+      <x:c r="Y908" s="0" t="s">
+        <x:v>3812</x:v>
+      </x:c>
+      <x:c r="Z908" s="0" t="s"/>
+      <x:c r="AA908" s="0" t="s"/>
+      <x:c r="AB908" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC908" s="0" t="s"/>
+    </x:row>
+    <x:row r="909" spans="1:29">
+      <x:c r="A909" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B909" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C909" s="0" t="s">
+        <x:v>4288</x:v>
+      </x:c>
+      <x:c r="D909" s="0" t="s">
+        <x:v>4289</x:v>
+      </x:c>
+      <x:c r="E909" s="0" t="s">
+        <x:v>4290</x:v>
+      </x:c>
+      <x:c r="F909" s="0" t="s">
+        <x:v>4291</x:v>
+      </x:c>
+      <x:c r="G909" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H909" s="1" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="I909" s="2" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="J909" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K909" s="3" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="L909" s="0" t="s"/>
+      <x:c r="M909" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N909" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O909" s="0" t="s"/>
+      <x:c r="P909" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q909" s="0" t="s"/>
+      <x:c r="R909" s="0" t="s"/>
+      <x:c r="S909" s="0" t="s"/>
+      <x:c r="T909" s="0" t="s">
+        <x:v>3811</x:v>
+      </x:c>
+      <x:c r="U909" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="V909" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="W909" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="X909" s="0" t="s"/>
+      <x:c r="Y909" s="0" t="s">
+        <x:v>3812</x:v>
+      </x:c>
+      <x:c r="Z909" s="0" t="s"/>
+      <x:c r="AA909" s="0" t="s"/>
+      <x:c r="AB909" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC909" s="0" t="s"/>
+    </x:row>
+    <x:row r="910" spans="1:29">
+      <x:c r="A910" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B910" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C910" s="0" t="s">
+        <x:v>4292</x:v>
+      </x:c>
+      <x:c r="D910" s="0" t="s">
+        <x:v>4293</x:v>
+      </x:c>
+      <x:c r="E910" s="0" t="s">
+        <x:v>4294</x:v>
+      </x:c>
+      <x:c r="F910" s="0" t="s">
+        <x:v>4295</x:v>
+      </x:c>
+      <x:c r="G910" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H910" s="1" t="s">
+        <x:v>4296</x:v>
+      </x:c>
+      <x:c r="I910" s="2" t="s">
+        <x:v>4296</x:v>
+      </x:c>
+      <x:c r="J910" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K910" s="3" t="s">
+        <x:v>4296</x:v>
+      </x:c>
+      <x:c r="L910" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M910" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N910" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O910" s="0" t="s"/>
+      <x:c r="P910" s="0" t="s"/>
+      <x:c r="Q910" s="0" t="s"/>
+      <x:c r="R910" s="0" t="s"/>
+      <x:c r="S910" s="0" t="s"/>
+      <x:c r="T910" s="0" t="s">
+        <x:v>2465</x:v>
+      </x:c>
+      <x:c r="U910" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="V910" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W910" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X910" s="0" t="s"/>
+      <x:c r="Y910" s="0" t="s">
+        <x:v>2466</x:v>
+      </x:c>
+      <x:c r="Z910" s="0" t="s"/>
+      <x:c r="AA910" s="0" t="s"/>
+      <x:c r="AB910" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC910" s="0" t="s"/>
+    </x:row>
+    <x:row r="911" spans="1:29">
+      <x:c r="A911" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B911" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C911" s="0" t="s">
+        <x:v>4297</x:v>
+      </x:c>
+      <x:c r="D911" s="0" t="s">
+        <x:v>4298</x:v>
+      </x:c>
+      <x:c r="E911" s="0" t="s">
+        <x:v>4299</x:v>
+      </x:c>
+      <x:c r="F911" s="0" t="s">
+        <x:v>4300</x:v>
+      </x:c>
+      <x:c r="G911" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H911" s="1" t="s">
+        <x:v>4013</x:v>
+      </x:c>
+      <x:c r="I911" s="2" t="s">
+        <x:v>4013</x:v>
+      </x:c>
+      <x:c r="J911" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K911" s="3" t="s">
+        <x:v>4013</x:v>
+      </x:c>
+      <x:c r="L911" s="0" t="s">
+        <x:v>4301</x:v>
+      </x:c>
+      <x:c r="M911" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N911" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O911" s="0" t="s"/>
+      <x:c r="P911" s="0" t="s"/>
+      <x:c r="Q911" s="0" t="s"/>
+      <x:c r="R911" s="0" t="s">
+        <x:v>4302</x:v>
+      </x:c>
+      <x:c r="S911" s="0" t="s"/>
+      <x:c r="T911" s="0" t="s">
+        <x:v>3919</x:v>
+      </x:c>
+      <x:c r="U911" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="V911" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="W911" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X911" s="0" t="s"/>
+      <x:c r="Y911" s="0" t="s"/>
+      <x:c r="Z911" s="0" t="s"/>
+      <x:c r="AA911" s="0" t="s"/>
+      <x:c r="AB911" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC911" s="0" t="s"/>
+    </x:row>
+    <x:row r="912" spans="1:29">
+      <x:c r="A912" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B912" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C912" s="0" t="s">
+        <x:v>4303</x:v>
+      </x:c>
+      <x:c r="D912" s="0" t="s">
+        <x:v>4304</x:v>
+      </x:c>
+      <x:c r="E912" s="0" t="s">
+        <x:v>4305</x:v>
+      </x:c>
+      <x:c r="F912" s="0" t="s">
+        <x:v>4306</x:v>
+      </x:c>
+      <x:c r="G912" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H912" s="1" t="s">
+        <x:v>1046</x:v>
+      </x:c>
+      <x:c r="I912" s="2" t="s">
+        <x:v>1046</x:v>
+      </x:c>
+      <x:c r="J912" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K912" s="3" t="s">
+        <x:v>1046</x:v>
+      </x:c>
+      <x:c r="L912" s="0" t="s">
+        <x:v>4307</x:v>
+      </x:c>
+      <x:c r="M912" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N912" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O912" s="0" t="s"/>
+      <x:c r="P912" s="0" t="s"/>
+      <x:c r="Q912" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="R912" s="0" t="s">
+        <x:v>4308</x:v>
+      </x:c>
+      <x:c r="S912" s="0" t="s">
+        <x:v>3977</x:v>
+      </x:c>
+      <x:c r="T912" s="0" t="s">
+        <x:v>2469</x:v>
+      </x:c>
+      <x:c r="U912" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="V912" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W912" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X912" s="0" t="s"/>
+      <x:c r="Y912" s="0" t="s"/>
+      <x:c r="Z912" s="0" t="s"/>
+      <x:c r="AA912" s="0" t="s"/>
+      <x:c r="AB912" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC912" s="0" t="s"/>
+    </x:row>
+    <x:row r="913" spans="1:29">
+      <x:c r="A913" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B913" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C913" s="0" t="s">
+        <x:v>4303</x:v>
+      </x:c>
+      <x:c r="D913" s="0" t="s">
+        <x:v>4304</x:v>
+      </x:c>
+      <x:c r="E913" s="0" t="s">
+        <x:v>4305</x:v>
+      </x:c>
+      <x:c r="F913" s="0" t="s">
+        <x:v>4309</x:v>
+      </x:c>
+      <x:c r="G913" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H913" s="1" t="s">
+        <x:v>4310</x:v>
+      </x:c>
+      <x:c r="I913" s="2" t="s">
+        <x:v>4310</x:v>
+      </x:c>
+      <x:c r="J913" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K913" s="3" t="s">
+        <x:v>4310</x:v>
+      </x:c>
+      <x:c r="L913" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M913" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N913" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O913" s="0" t="s"/>
+      <x:c r="P913" s="0" t="s"/>
+      <x:c r="Q913" s="0" t="s"/>
+      <x:c r="R913" s="0" t="s"/>
+      <x:c r="S913" s="0" t="s"/>
+      <x:c r="T913" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U913" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V913" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W913" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X913" s="0" t="s"/>
+      <x:c r="Y913" s="0" t="s">
+        <x:v>4311</x:v>
+      </x:c>
+      <x:c r="Z913" s="0" t="s"/>
+      <x:c r="AA913" s="0" t="s"/>
+      <x:c r="AB913" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC913" s="0" t="s"/>
+    </x:row>
+    <x:row r="914" spans="1:29">
+      <x:c r="A914" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B914" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C914" s="0" t="s">
+        <x:v>4312</x:v>
+      </x:c>
+      <x:c r="D914" s="0" t="s">
+        <x:v>4313</x:v>
+      </x:c>
+      <x:c r="E914" s="0" t="s">
+        <x:v>4314</x:v>
+      </x:c>
+      <x:c r="F914" s="0" t="s">
+        <x:v>4315</x:v>
+      </x:c>
+      <x:c r="G914" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H914" s="1" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="I914" s="2" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="J914" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K914" s="3" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="L914" s="0" t="s"/>
+      <x:c r="M914" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N914" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O914" s="0" t="s"/>
+      <x:c r="P914" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q914" s="0" t="s"/>
+      <x:c r="R914" s="0" t="s"/>
+      <x:c r="S914" s="0" t="s"/>
+      <x:c r="T914" s="0" t="s">
+        <x:v>3811</x:v>
+      </x:c>
+      <x:c r="U914" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="V914" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W914" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="X914" s="0" t="s"/>
+      <x:c r="Y914" s="0" t="s">
+        <x:v>3858</x:v>
+      </x:c>
+      <x:c r="Z914" s="0" t="s"/>
+      <x:c r="AA914" s="0" t="s"/>
+      <x:c r="AB914" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC914" s="0" t="s"/>
+    </x:row>
+    <x:row r="915" spans="1:29">
+      <x:c r="A915" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B915" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C915" s="0" t="s">
+        <x:v>4316</x:v>
+      </x:c>
+      <x:c r="D915" s="0" t="s">
+        <x:v>4317</x:v>
+      </x:c>
+      <x:c r="E915" s="0" t="s">
+        <x:v>4318</x:v>
+      </x:c>
+      <x:c r="F915" s="0" t="s">
+        <x:v>4319</x:v>
+      </x:c>
+      <x:c r="G915" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H915" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I915" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J915" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K915" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L915" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M915" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N915" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O915" s="0" t="s"/>
+      <x:c r="P915" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q915" s="0" t="s"/>
+      <x:c r="R915" s="0" t="s"/>
+      <x:c r="S915" s="0" t="s"/>
+      <x:c r="T915" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U915" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V915" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W915" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="X915" s="0" t="s"/>
+      <x:c r="Y915" s="0" t="s">
+        <x:v>842</x:v>
+      </x:c>
+      <x:c r="Z915" s="0" t="s"/>
+      <x:c r="AA915" s="0" t="s"/>
+      <x:c r="AB915" s="0" t="s"/>
+      <x:c r="AC915" s="0" t="s"/>
+    </x:row>
+    <x:row r="916" spans="1:29">
+      <x:c r="A916" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B916" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C916" s="0" t="s">
+        <x:v>4320</x:v>
+      </x:c>
+      <x:c r="D916" s="0" t="s">
+        <x:v>4321</x:v>
+      </x:c>
+      <x:c r="E916" s="0" t="s">
+        <x:v>4322</x:v>
+      </x:c>
+      <x:c r="F916" s="0" t="s">
+        <x:v>4323</x:v>
+      </x:c>
+      <x:c r="G916" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H916" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I916" s="2" t="s">
+        <x:v>1220</x:v>
+      </x:c>
+      <x:c r="J916" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K916" s="3" t="s">
+        <x:v>1220</x:v>
+      </x:c>
+      <x:c r="L916" s="0" t="s"/>
+      <x:c r="M916" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N916" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O916" s="0" t="s"/>
+      <x:c r="P916" s="0" t="s">
+        <x:v>4324</x:v>
+      </x:c>
+      <x:c r="Q916" s="0" t="s"/>
+      <x:c r="R916" s="0" t="s"/>
+      <x:c r="S916" s="0" t="s"/>
+      <x:c r="T916" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="U916" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V916" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W916" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X916" s="0" t="s"/>
+      <x:c r="Y916" s="0" t="s"/>
+      <x:c r="Z916" s="0" t="s"/>
+      <x:c r="AA916" s="0" t="s"/>
+      <x:c r="AB916" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC916" s="0" t="s"/>
+    </x:row>
+    <x:row r="917" spans="1:29">
+      <x:c r="A917" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B917" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C917" s="0" t="s">
+        <x:v>4325</x:v>
+      </x:c>
+      <x:c r="D917" s="0" t="s">
+        <x:v>4326</x:v>
+      </x:c>
+      <x:c r="E917" s="0" t="s">
+        <x:v>4327</x:v>
+      </x:c>
+      <x:c r="F917" s="0" t="s">
+        <x:v>4328</x:v>
+      </x:c>
+      <x:c r="G917" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H917" s="1" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="I917" s="2" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="J917" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K917" s="3" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="L917" s="0" t="s">
+        <x:v>4329</x:v>
+      </x:c>
+      <x:c r="M917" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N917" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O917" s="0" t="s"/>
+      <x:c r="P917" s="0" t="s"/>
+      <x:c r="Q917" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="R917" s="0" t="s">
+        <x:v>4330</x:v>
+      </x:c>
+      <x:c r="S917" s="0" t="s">
+        <x:v>3977</x:v>
+      </x:c>
+      <x:c r="T917" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="U917" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="V917" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="W917" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X917" s="0" t="s"/>
+      <x:c r="Y917" s="0" t="s"/>
+      <x:c r="Z917" s="0" t="s"/>
+      <x:c r="AA917" s="0" t="s"/>
+      <x:c r="AB917" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AC917" s="0" t="s"/>
+    </x:row>
+    <x:row r="918" spans="1:29">
+      <x:c r="A918" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B918" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C918" s="0" t="s">
+        <x:v>4331</x:v>
+      </x:c>
+      <x:c r="D918" s="0" t="s">
+        <x:v>4332</x:v>
+      </x:c>
+      <x:c r="E918" s="0" t="s">
+        <x:v>4333</x:v>
+      </x:c>
+      <x:c r="F918" s="0" t="s">
+        <x:v>4334</x:v>
+      </x:c>
+      <x:c r="G918" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H918" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I918" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J918" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K918" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L918" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M918" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N918" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O918" s="0" t="s"/>
+      <x:c r="P918" s="0" t="s"/>
+      <x:c r="Q918" s="0" t="s"/>
+      <x:c r="R918" s="0" t="s"/>
+      <x:c r="S918" s="0" t="s"/>
+      <x:c r="T918" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U918" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V918" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W918" s="0" t="s">
+        <x:v>1136</x:v>
+      </x:c>
+      <x:c r="X918" s="0" t="s"/>
+      <x:c r="Y918" s="0" t="s">
+        <x:v>4184</x:v>
+      </x:c>
+      <x:c r="Z918" s="0" t="s"/>
+      <x:c r="AA918" s="0" t="s"/>
+      <x:c r="AB918" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC918" s="0" t="s"/>
+    </x:row>
+    <x:row r="919" spans="1:29">
+      <x:c r="A919" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B919" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C919" s="0" t="s">
+        <x:v>4335</x:v>
+      </x:c>
+      <x:c r="D919" s="0" t="s">
+        <x:v>4336</x:v>
+      </x:c>
+      <x:c r="E919" s="0" t="s">
+        <x:v>4337</x:v>
+      </x:c>
+      <x:c r="F919" s="0" t="s">
+        <x:v>4338</x:v>
+      </x:c>
+      <x:c r="G919" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H919" s="1" t="s">
+        <x:v>4339</x:v>
+      </x:c>
+      <x:c r="I919" s="2" t="s">
+        <x:v>4339</x:v>
+      </x:c>
+      <x:c r="J919" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K919" s="3" t="s">
+        <x:v>4339</x:v>
+      </x:c>
+      <x:c r="L919" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M919" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N919" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O919" s="0" t="s"/>
+      <x:c r="P919" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q919" s="0" t="s"/>
+      <x:c r="R919" s="0" t="s"/>
+      <x:c r="S919" s="0" t="s"/>
+      <x:c r="T919" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U919" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="V919" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="W919" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="X919" s="0" t="s"/>
+      <x:c r="Y919" s="0" t="s">
+        <x:v>4251</x:v>
+      </x:c>
+      <x:c r="Z919" s="0" t="s"/>
+      <x:c r="AA919" s="0" t="s"/>
+      <x:c r="AB919" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC919" s="0" t="s"/>
+    </x:row>
+    <x:row r="920" spans="1:29">
+      <x:c r="A920" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B920" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C920" s="0" t="s">
+        <x:v>4335</x:v>
+      </x:c>
+      <x:c r="D920" s="0" t="s">
+        <x:v>4336</x:v>
+      </x:c>
+      <x:c r="E920" s="0" t="s">
+        <x:v>4337</x:v>
+      </x:c>
+      <x:c r="F920" s="0" t="s">
+        <x:v>4340</x:v>
+      </x:c>
+      <x:c r="G920" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H920" s="1" t="s">
+        <x:v>4341</x:v>
+      </x:c>
+      <x:c r="I920" s="2" t="s">
+        <x:v>4341</x:v>
+      </x:c>
+      <x:c r="J920" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K920" s="3" t="s">
+        <x:v>4341</x:v>
+      </x:c>
+      <x:c r="L920" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M920" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N920" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O920" s="0" t="s"/>
+      <x:c r="P920" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q920" s="0" t="s"/>
+      <x:c r="R920" s="0" t="s"/>
+      <x:c r="S920" s="0" t="s"/>
+      <x:c r="T920" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U920" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="V920" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="W920" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="X920" s="0" t="s"/>
+      <x:c r="Y920" s="0" t="s">
+        <x:v>4251</x:v>
+      </x:c>
+      <x:c r="Z920" s="0" t="s"/>
+      <x:c r="AA920" s="0" t="s"/>
+      <x:c r="AB920" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC920" s="0" t="s"/>
+    </x:row>
+    <x:row r="921" spans="1:29">
+      <x:c r="A921" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B921" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C921" s="0" t="s">
+        <x:v>4342</x:v>
+      </x:c>
+      <x:c r="D921" s="0" t="s">
+        <x:v>4343</x:v>
+      </x:c>
+      <x:c r="E921" s="0" t="s">
+        <x:v>4344</x:v>
+      </x:c>
+      <x:c r="F921" s="0" t="s">
+        <x:v>4345</x:v>
+      </x:c>
+      <x:c r="G921" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="H921" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="I921" s="2" t="s">
+        <x:v>1607</x:v>
+      </x:c>
+      <x:c r="J921" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K921" s="3" t="s">
+        <x:v>1607</x:v>
+      </x:c>
+      <x:c r="L921" s="0" t="s">
+        <x:v>1609</x:v>
+      </x:c>
+      <x:c r="M921" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N921" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="O921" s="0" t="s"/>
+      <x:c r="P921" s="0" t="s"/>
+      <x:c r="Q921" s="0" t="s"/>
+      <x:c r="R921" s="0" t="s">
+        <x:v>4346</x:v>
+      </x:c>
+      <x:c r="S921" s="0" t="s"/>
+      <x:c r="T921" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="U921" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V921" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W921" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X921" s="0" t="s"/>
+      <x:c r="Y921" s="0" t="s"/>
+      <x:c r="Z921" s="0" t="s"/>
+      <x:c r="AA921" s="0" t="s"/>
+      <x:c r="AB921" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC921" s="0" t="s"/>
+    </x:row>
+    <x:row r="922" spans="1:29">
+      <x:c r="A922" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B922" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C922" s="0" t="s">
+        <x:v>4347</x:v>
+      </x:c>
+      <x:c r="D922" s="0" t="s">
+        <x:v>4348</x:v>
+      </x:c>
+      <x:c r="E922" s="0" t="s">
+        <x:v>4349</x:v>
+      </x:c>
+      <x:c r="F922" s="0" t="s">
+        <x:v>4350</x:v>
+      </x:c>
+      <x:c r="G922" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H922" s="1" t="s">
+        <x:v>4351</x:v>
+      </x:c>
+      <x:c r="I922" s="2" t="s">
+        <x:v>4351</x:v>
+      </x:c>
+      <x:c r="J922" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K922" s="3" t="s">
+        <x:v>4351</x:v>
+      </x:c>
+      <x:c r="L922" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M922" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N922" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O922" s="0" t="s"/>
+      <x:c r="P922" s="0" t="s"/>
+      <x:c r="Q922" s="0" t="s"/>
+      <x:c r="R922" s="0" t="s"/>
+      <x:c r="S922" s="0" t="s"/>
+      <x:c r="T922" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U922" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="V922" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W922" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X922" s="0" t="s"/>
+      <x:c r="Y922" s="0" t="s">
+        <x:v>4184</x:v>
+      </x:c>
+      <x:c r="Z922" s="0" t="s">
+        <x:v>4352</x:v>
+      </x:c>
+      <x:c r="AA922" s="0" t="s">
+        <x:v>4353</x:v>
+      </x:c>
+      <x:c r="AB922" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC922" s="0" t="s"/>
+    </x:row>
+    <x:row r="923" spans="1:29">
+      <x:c r="A923" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B923" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C923" s="0" t="s">
+        <x:v>4354</x:v>
+      </x:c>
+      <x:c r="D923" s="0" t="s">
+        <x:v>4355</x:v>
+      </x:c>
+      <x:c r="E923" s="0" t="s">
+        <x:v>4356</x:v>
+      </x:c>
+      <x:c r="F923" s="0" t="s">
+        <x:v>4357</x:v>
+      </x:c>
+      <x:c r="G923" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H923" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I923" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="J923" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K923" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="L923" s="0" t="s"/>
+      <x:c r="M923" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N923" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O923" s="0" t="s"/>
+      <x:c r="P923" s="0" t="s"/>
+      <x:c r="Q923" s="0" t="s"/>
+      <x:c r="R923" s="0" t="s"/>
+      <x:c r="S923" s="0" t="s"/>
+      <x:c r="T923" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="U923" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V923" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="W923" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X923" s="0" t="s"/>
+      <x:c r="Y923" s="0" t="s"/>
+      <x:c r="Z923" s="0" t="s"/>
+      <x:c r="AA923" s="0" t="s"/>
+      <x:c r="AB923" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC923" s="0" t="s"/>
+    </x:row>
+    <x:row r="924" spans="1:29">
+      <x:c r="A924" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B924" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C924" s="0" t="s">
+        <x:v>4358</x:v>
+      </x:c>
+      <x:c r="D924" s="0" t="s">
+        <x:v>4359</x:v>
+      </x:c>
+      <x:c r="E924" s="0" t="s"/>
+      <x:c r="F924" s="0" t="s">
+        <x:v>4360</x:v>
+      </x:c>
+      <x:c r="G924" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H924" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="I924" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="J924" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K924" s="3" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="L924" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M924" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N924" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O924" s="0" t="s"/>
+      <x:c r="P924" s="0" t="s"/>
+      <x:c r="Q924" s="0" t="s"/>
+      <x:c r="R924" s="0" t="s"/>
+      <x:c r="S924" s="0" t="s"/>
+      <x:c r="T924" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U924" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="V924" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="W924" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="X924" s="0" t="s"/>
+      <x:c r="Y924" s="0" t="s">
+        <x:v>4361</x:v>
+      </x:c>
+      <x:c r="Z924" s="0" t="s"/>
+      <x:c r="AA924" s="0" t="s"/>
+      <x:c r="AB924" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC924" s="0" t="s"/>
+    </x:row>
+    <x:row r="925" spans="1:29">
+      <x:c r="A925" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B925" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C925" s="0" t="s">
+        <x:v>4362</x:v>
+      </x:c>
+      <x:c r="D925" s="0" t="s">
+        <x:v>4363</x:v>
+      </x:c>
+      <x:c r="E925" s="0" t="s">
+        <x:v>4364</x:v>
+      </x:c>
+      <x:c r="F925" s="0" t="s">
+        <x:v>4365</x:v>
+      </x:c>
+      <x:c r="G925" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H925" s="1" t="s">
+        <x:v>4366</x:v>
+      </x:c>
+      <x:c r="I925" s="2" t="s">
+        <x:v>4366</x:v>
+      </x:c>
+      <x:c r="J925" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K925" s="3" t="s">
+        <x:v>4366</x:v>
+      </x:c>
+      <x:c r="L925" s="0" t="s">
+        <x:v>4367</x:v>
+      </x:c>
+      <x:c r="M925" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N925" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O925" s="0" t="s"/>
+      <x:c r="P925" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q925" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="R925" s="0" t="s">
+        <x:v>4368</x:v>
+      </x:c>
+      <x:c r="S925" s="0" t="s">
+        <x:v>3977</x:v>
+      </x:c>
+      <x:c r="T925" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="U925" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="V925" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="W925" s="0" t="s">
+        <x:v>4369</x:v>
+      </x:c>
+      <x:c r="X925" s="0" t="s"/>
+      <x:c r="Y925" s="0" t="s"/>
+      <x:c r="Z925" s="0" t="s"/>
+      <x:c r="AA925" s="0" t="s"/>
+      <x:c r="AB925" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AC925" s="0" t="s"/>
+    </x:row>
+    <x:row r="926" spans="1:29">
+      <x:c r="A926" s="0" t="s"/>
+      <x:c r="B926" s="0" t="s"/>
+      <x:c r="C926" s="0" t="s"/>
+      <x:c r="D926" s="0" t="s"/>
+      <x:c r="E926" s="0" t="s"/>
+      <x:c r="F926" s="0" t="s"/>
+      <x:c r="G926" s="0" t="s"/>
+      <x:c r="H926" s="0" t="s"/>
+      <x:c r="I926" s="0" t="s"/>
+      <x:c r="J926" s="0" t="s"/>
+      <x:c r="K926" s="0" t="s"/>
+      <x:c r="L926" s="0" t="s"/>
+      <x:c r="M926" s="0" t="s"/>
+      <x:c r="N926" s="0" t="s"/>
+      <x:c r="O926" s="0" t="s"/>
+      <x:c r="P926" s="0" t="s"/>
+      <x:c r="Q926" s="0" t="s"/>
+      <x:c r="R926" s="0" t="s"/>
+      <x:c r="S926" s="0" t="s"/>
+      <x:c r="T926" s="0" t="s"/>
+      <x:c r="U926" s="0" t="s"/>
+      <x:c r="V926" s="0" t="s"/>
+      <x:c r="W926" s="0" t="s"/>
+      <x:c r="X926" s="0" t="s"/>
+      <x:c r="Y926" s="0" t="s"/>
+      <x:c r="Z926" s="0" t="s"/>
+      <x:c r="AA926" s="0" t="s"/>
+      <x:c r="AB926" s="0" t="s"/>
+      <x:c r="AC926" s="0" t="s"/>
+    </x:row>
+    <x:row r="927" spans="1:29">
+      <x:c r="A927" s="0" t="s"/>
+      <x:c r="B927" s="0" t="s"/>
+      <x:c r="C927" s="0" t="s"/>
+      <x:c r="D927" s="0" t="s">
+        <x:v>4370</x:v>
+      </x:c>
+      <x:c r="E927" s="0" t="s"/>
+      <x:c r="F927" s="0" t="s"/>
+      <x:c r="G927" s="0" t="s"/>
+      <x:c r="H927" s="0" t="s">
+        <x:v>4371</x:v>
+      </x:c>
+      <x:c r="I927" s="0" t="s">
+        <x:v>4372</x:v>
+      </x:c>
+      <x:c r="J927" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K927" s="0" t="s"/>
+      <x:c r="L927" s="0" t="s">
+        <x:v>4373</x:v>
+      </x:c>
+      <x:c r="M927" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N927" s="0" t="s">
+        <x:v>4374</x:v>
+      </x:c>
+      <x:c r="O927" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P927" s="0" t="s">
+        <x:v>4375</x:v>
+      </x:c>
+      <x:c r="Q927" s="0" t="s"/>
+      <x:c r="R927" s="0" t="s"/>
+      <x:c r="S927" s="0" t="s"/>
+      <x:c r="T927" s="0" t="s"/>
+      <x:c r="U927" s="0" t="s"/>
+      <x:c r="V927" s="0" t="s"/>
+      <x:c r="W927" s="0" t="s"/>
+      <x:c r="X927" s="0" t="s"/>
+      <x:c r="Y927" s="0" t="s"/>
+      <x:c r="Z927" s="0" t="s"/>
+      <x:c r="AA927" s="0" t="s"/>
+      <x:c r="AB927" s="0" t="s"/>
+      <x:c r="AC927" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
